--- a/tests/models/potable_water_treatment_plant/pwtp_400ML_wnpg.xlsx
+++ b/tests/models/potable_water_treatment_plant/pwtp_400ML_wnpg.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/tests/models/potable_water_treatment_plant/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96BE140A-694E-A84E-ADD6-C63F63A57A53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28665" yWindow="-15" windowWidth="28710" windowHeight="14550" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="14560" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="14" r:id="rId1"/>
@@ -20,7 +26,7 @@
   <definedNames>
     <definedName name="ComponentTypeList">asset_names!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="233">
   <si>
     <t>component_type</t>
   </si>
@@ -724,18 +730,24 @@
   </si>
   <si>
     <t>Not Available.</t>
+  </si>
+  <si>
+    <t>recovery_function</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1577,7 +1589,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1860,6 +1872,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="540">
@@ -2545,6 +2566,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2804,28 +2828,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>210</v>
       </c>
@@ -2836,7 +2860,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -2847,7 +2871,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>214</v>
       </c>
@@ -2858,7 +2882,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>215</v>
       </c>
@@ -2869,7 +2893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>216</v>
       </c>
@@ -2877,7 +2901,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>217</v>
       </c>
@@ -2888,7 +2912,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -2903,8 +2927,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:G88"/>
@@ -2913,11 +2937,11 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="48" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="50.875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="48" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="48" customWidth="1"/>
     <col min="5" max="5" width="19" style="48" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="48" bestFit="1" customWidth="1"/>
@@ -2925,7 +2949,7 @@
     <col min="8" max="16384" width="11" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>23</v>
       </c>
@@ -2948,7 +2972,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>48</v>
       </c>
@@ -2971,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>155</v>
       </c>
@@ -2994,7 +3018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>165</v>
       </c>
@@ -3017,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>166</v>
       </c>
@@ -3040,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>167</v>
       </c>
@@ -3063,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>194</v>
       </c>
@@ -3086,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>118</v>
       </c>
@@ -3109,7 +3133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>117</v>
       </c>
@@ -3132,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="52" t="s">
         <v>124</v>
       </c>
@@ -3155,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="52" t="s">
         <v>125</v>
       </c>
@@ -3178,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="52" t="s">
         <v>126</v>
       </c>
@@ -3201,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="52" t="s">
         <v>127</v>
       </c>
@@ -3224,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="52" t="s">
         <v>128</v>
       </c>
@@ -3247,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="52" t="s">
         <v>129</v>
       </c>
@@ -3270,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>130</v>
       </c>
@@ -3293,7 +3317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>131</v>
       </c>
@@ -3316,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>70</v>
       </c>
@@ -3339,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>71</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>72</v>
       </c>
@@ -3385,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>73</v>
       </c>
@@ -3408,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>74</v>
       </c>
@@ -3431,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>75</v>
       </c>
@@ -3454,7 +3478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>76</v>
       </c>
@@ -3477,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="52" t="s">
         <v>77</v>
       </c>
@@ -3500,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="57" t="s">
         <v>100</v>
       </c>
@@ -3523,7 +3547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="52" t="s">
         <v>78</v>
       </c>
@@ -3546,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="52" t="s">
         <v>79</v>
       </c>
@@ -3569,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="52" t="s">
         <v>80</v>
       </c>
@@ -3592,7 +3616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="52" t="s">
         <v>81</v>
       </c>
@@ -3615,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="52" t="s">
         <v>82</v>
       </c>
@@ -3638,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="52" t="s">
         <v>83</v>
       </c>
@@ -3661,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>84</v>
       </c>
@@ -3684,7 +3708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>85</v>
       </c>
@@ -3707,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>86</v>
       </c>
@@ -3730,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>132</v>
       </c>
@@ -3753,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>133</v>
       </c>
@@ -3776,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>87</v>
       </c>
@@ -3799,7 +3823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="52" t="s">
         <v>88</v>
       </c>
@@ -3822,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="52" t="s">
         <v>89</v>
       </c>
@@ -3845,7 +3869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="52" t="s">
         <v>90</v>
       </c>
@@ -3868,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="52" t="s">
         <v>134</v>
       </c>
@@ -3891,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="52" t="s">
         <v>135</v>
       </c>
@@ -3914,7 +3938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="52" t="s">
         <v>136</v>
       </c>
@@ -3937,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="52" t="s">
         <v>137</v>
       </c>
@@ -3960,7 +3984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="52" t="s">
         <v>138</v>
       </c>
@@ -3983,7 +4007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="52" t="s">
         <v>139</v>
       </c>
@@ -4006,7 +4030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="52" t="s">
         <v>140</v>
       </c>
@@ -4029,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="52" t="s">
         <v>141</v>
       </c>
@@ -4052,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="52" t="s">
         <v>91</v>
       </c>
@@ -4075,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="52" t="s">
         <v>92</v>
       </c>
@@ -4098,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="52" t="s">
         <v>93</v>
       </c>
@@ -4121,7 +4145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="52" t="s">
         <v>94</v>
       </c>
@@ -4144,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="52" t="s">
         <v>95</v>
       </c>
@@ -4167,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="52" t="s">
         <v>96</v>
       </c>
@@ -4190,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="52" t="s">
         <v>97</v>
       </c>
@@ -4213,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>98</v>
       </c>
@@ -4236,7 +4260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="52" t="s">
         <v>142</v>
       </c>
@@ -4259,7 +4283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="52" t="s">
         <v>143</v>
       </c>
@@ -4282,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="52" t="s">
         <v>170</v>
       </c>
@@ -4305,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="52" t="s">
         <v>119</v>
       </c>
@@ -4328,7 +4352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="52" t="s">
         <v>196</v>
       </c>
@@ -4351,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="52" t="s">
         <v>171</v>
       </c>
@@ -4374,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="52" t="s">
         <v>172</v>
       </c>
@@ -4397,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="52" t="s">
         <v>101</v>
       </c>
@@ -4420,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="52" t="s">
         <v>102</v>
       </c>
@@ -4443,7 +4467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="52" t="s">
         <v>144</v>
       </c>
@@ -4466,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="52" t="s">
         <v>145</v>
       </c>
@@ -4489,7 +4513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="52" t="s">
         <v>146</v>
       </c>
@@ -4512,7 +4536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="52" t="s">
         <v>147</v>
       </c>
@@ -4535,7 +4559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="52" t="s">
         <v>148</v>
       </c>
@@ -4558,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="52" t="s">
         <v>103</v>
       </c>
@@ -4581,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="52" t="s">
         <v>104</v>
       </c>
@@ -4604,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="52" t="s">
         <v>105</v>
       </c>
@@ -4627,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="52" t="s">
         <v>106</v>
       </c>
@@ -4650,7 +4674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="52" t="s">
         <v>107</v>
       </c>
@@ -4673,7 +4697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="52" t="s">
         <v>108</v>
       </c>
@@ -4696,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="52" t="s">
         <v>149</v>
       </c>
@@ -4719,7 +4743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="52" t="s">
         <v>150</v>
       </c>
@@ -4742,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="52" t="s">
         <v>174</v>
       </c>
@@ -4765,7 +4789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="52" t="s">
         <v>120</v>
       </c>
@@ -4788,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="52" t="s">
         <v>121</v>
       </c>
@@ -4811,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="52" t="s">
         <v>114</v>
       </c>
@@ -4834,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="52" t="s">
         <v>115</v>
       </c>
@@ -4857,7 +4881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="52" t="s">
         <v>12</v>
       </c>
@@ -4880,7 +4904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="52" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="52" t="s">
         <v>13</v>
       </c>
@@ -4903,12 +4927,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="D88" s="61"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B86" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -4918,8 +4942,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:D129"/>
@@ -4928,16 +4952,16 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="52" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="52" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="52" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="52" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="52" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="52"/>
+    <col min="4" max="4" width="14.33203125" style="52" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="49" t="s">
         <v>35</v>
       </c>
@@ -4951,7 +4975,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>165</v>
       </c>
@@ -4965,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="52" t="s">
         <v>166</v>
       </c>
@@ -4979,7 +5003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="52" t="s">
         <v>48</v>
       </c>
@@ -4993,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="52" t="s">
         <v>155</v>
       </c>
@@ -5007,7 +5031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="52" t="s">
         <v>167</v>
       </c>
@@ -5021,7 +5045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="52" t="s">
         <v>118</v>
       </c>
@@ -5035,7 +5059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="52" t="s">
         <v>117</v>
       </c>
@@ -5049,7 +5073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="52" t="s">
         <v>194</v>
       </c>
@@ -5063,7 +5087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="52" t="s">
         <v>194</v>
       </c>
@@ -5077,7 +5101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="52" t="s">
         <v>194</v>
       </c>
@@ -5091,7 +5115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="52" t="s">
         <v>194</v>
       </c>
@@ -5105,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="52" t="s">
         <v>194</v>
       </c>
@@ -5119,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="52" t="s">
         <v>194</v>
       </c>
@@ -5133,7 +5157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="52" t="s">
         <v>194</v>
       </c>
@@ -5147,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="52" t="s">
         <v>194</v>
       </c>
@@ -5161,7 +5185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="52" t="s">
         <v>124</v>
       </c>
@@ -5175,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="52" t="s">
         <v>125</v>
       </c>
@@ -5189,7 +5213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="52" t="s">
         <v>126</v>
       </c>
@@ -5203,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="64" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="64" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="52" t="s">
         <v>127</v>
       </c>
@@ -5217,7 +5241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="52" t="s">
         <v>128</v>
       </c>
@@ -5231,7 +5255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="52" t="s">
         <v>129</v>
       </c>
@@ -5245,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="52" t="s">
         <v>130</v>
       </c>
@@ -5259,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="52" t="s">
         <v>131</v>
       </c>
@@ -5273,7 +5297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="57" t="s">
         <v>100</v>
       </c>
@@ -5287,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="57" t="s">
         <v>100</v>
       </c>
@@ -5301,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>100</v>
       </c>
@@ -5315,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="57" t="s">
         <v>100</v>
       </c>
@@ -5329,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="57" t="s">
         <v>100</v>
       </c>
@@ -5343,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="57" t="s">
         <v>100</v>
       </c>
@@ -5357,7 +5381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="57" t="s">
         <v>100</v>
       </c>
@@ -5371,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="57" t="s">
         <v>100</v>
       </c>
@@ -5385,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="52" t="s">
         <v>70</v>
       </c>
@@ -5399,7 +5423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="52" t="s">
         <v>71</v>
       </c>
@@ -5413,7 +5437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="52" t="s">
         <v>72</v>
       </c>
@@ -5427,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="52" t="s">
         <v>73</v>
       </c>
@@ -5441,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="52" t="s">
         <v>74</v>
       </c>
@@ -5455,7 +5479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="52" t="s">
         <v>75</v>
       </c>
@@ -5469,7 +5493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="52" t="s">
         <v>76</v>
       </c>
@@ -5483,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="52" t="s">
         <v>77</v>
       </c>
@@ -5497,7 +5521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="52" t="s">
         <v>78</v>
       </c>
@@ -5511,7 +5535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="52" t="s">
         <v>79</v>
       </c>
@@ -5525,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="20" customHeight="1">
       <c r="A43" s="52" t="s">
         <v>80</v>
       </c>
@@ -5539,7 +5563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="20" customHeight="1">
       <c r="A44" s="52" t="s">
         <v>81</v>
       </c>
@@ -5553,7 +5577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="52" t="s">
         <v>82</v>
       </c>
@@ -5567,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="20" customHeight="1">
       <c r="A46" s="52" t="s">
         <v>83</v>
       </c>
@@ -5581,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="20" customHeight="1">
       <c r="A47" s="52" t="s">
         <v>84</v>
       </c>
@@ -5595,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="20" customHeight="1">
       <c r="A48" s="52" t="s">
         <v>85</v>
       </c>
@@ -5609,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="52" t="s">
         <v>86</v>
       </c>
@@ -5623,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="52" t="s">
         <v>86</v>
       </c>
@@ -5637,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="20" customHeight="1">
       <c r="A51" s="52" t="s">
         <v>132</v>
       </c>
@@ -5651,7 +5675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="52" t="s">
         <v>133</v>
       </c>
@@ -5665,7 +5689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="52" t="s">
         <v>87</v>
       </c>
@@ -5679,7 +5703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="20" customHeight="1">
       <c r="A54" s="52" t="s">
         <v>87</v>
       </c>
@@ -5693,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="52" t="s">
         <v>88</v>
       </c>
@@ -5707,7 +5731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="20" customHeight="1">
       <c r="A56" s="52" t="s">
         <v>89</v>
       </c>
@@ -5721,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>90</v>
       </c>
@@ -5735,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="20" customHeight="1">
       <c r="A58" s="52" t="s">
         <v>90</v>
       </c>
@@ -5749,7 +5773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="52" t="s">
         <v>90</v>
       </c>
@@ -5763,7 +5787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="20" customHeight="1">
       <c r="A60" s="52" t="s">
         <v>90</v>
       </c>
@@ -5777,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="52" t="s">
         <v>90</v>
       </c>
@@ -5791,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="20" customHeight="1">
       <c r="A62" s="52" t="s">
         <v>90</v>
       </c>
@@ -5805,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="52" t="s">
         <v>90</v>
       </c>
@@ -5819,7 +5843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="20" customHeight="1">
       <c r="A64" s="52" t="s">
         <v>90</v>
       </c>
@@ -5833,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="20" customHeight="1">
       <c r="A65" s="52" t="s">
         <v>134</v>
       </c>
@@ -5847,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="20" customHeight="1">
       <c r="A66" s="52" t="s">
         <v>135</v>
       </c>
@@ -5861,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="20" customHeight="1">
       <c r="A67" s="52" t="s">
         <v>136</v>
       </c>
@@ -5875,7 +5899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="20" customHeight="1">
       <c r="A68" s="52" t="s">
         <v>137</v>
       </c>
@@ -5889,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="20" customHeight="1">
       <c r="A69" s="52" t="s">
         <v>138</v>
       </c>
@@ -5903,7 +5927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="20" customHeight="1">
       <c r="A70" s="52" t="s">
         <v>139</v>
       </c>
@@ -5917,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="52" t="s">
         <v>140</v>
       </c>
@@ -5931,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="20" customHeight="1">
       <c r="A72" s="52" t="s">
         <v>141</v>
       </c>
@@ -5945,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="20" customHeight="1">
       <c r="A73" s="52" t="s">
         <v>91</v>
       </c>
@@ -5959,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="20" customHeight="1">
       <c r="A74" s="52" t="s">
         <v>92</v>
       </c>
@@ -5973,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="52" t="s">
         <v>93</v>
       </c>
@@ -5987,7 +6011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="52" t="s">
         <v>94</v>
       </c>
@@ -6001,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="52" t="s">
         <v>95</v>
       </c>
@@ -6015,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="20" customHeight="1">
       <c r="A78" s="52" t="s">
         <v>96</v>
       </c>
@@ -6029,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="A79" s="52" t="s">
         <v>97</v>
       </c>
@@ -6043,7 +6067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="52" t="s">
         <v>98</v>
       </c>
@@ -6057,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="52" t="s">
         <v>142</v>
       </c>
@@ -6071,7 +6095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="52" t="s">
         <v>143</v>
       </c>
@@ -6085,7 +6109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="20" customHeight="1">
       <c r="A83" s="52" t="s">
         <v>170</v>
       </c>
@@ -6099,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="52" t="s">
         <v>119</v>
       </c>
@@ -6113,7 +6137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="20" customHeight="1">
       <c r="A85" s="52" t="s">
         <v>196</v>
       </c>
@@ -6127,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="52" t="s">
         <v>171</v>
       </c>
@@ -6141,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="20" customHeight="1">
       <c r="A87" s="52" t="s">
         <v>172</v>
       </c>
@@ -6155,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="52" t="s">
         <v>172</v>
       </c>
@@ -6169,7 +6193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="20" customHeight="1">
       <c r="A89" s="52" t="s">
         <v>101</v>
       </c>
@@ -6183,7 +6207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="20" customHeight="1">
       <c r="A90" s="52" t="s">
         <v>102</v>
       </c>
@@ -6197,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="20" customHeight="1">
       <c r="A91" s="52" t="s">
         <v>144</v>
       </c>
@@ -6211,7 +6235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="20" customHeight="1">
       <c r="A92" s="52" t="s">
         <v>145</v>
       </c>
@@ -6225,7 +6249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="20" customHeight="1">
       <c r="A93" s="52" t="s">
         <v>146</v>
       </c>
@@ -6239,7 +6263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="20" customHeight="1">
       <c r="A94" s="52" t="s">
         <v>146</v>
       </c>
@@ -6253,7 +6277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="20" customHeight="1">
       <c r="A95" s="52" t="s">
         <v>147</v>
       </c>
@@ -6267,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="20" customHeight="1">
       <c r="A96" s="52" t="s">
         <v>147</v>
       </c>
@@ -6281,7 +6305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="20" customHeight="1">
       <c r="A97" s="52" t="s">
         <v>148</v>
       </c>
@@ -6295,7 +6319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="20" customHeight="1">
       <c r="A98" s="52" t="s">
         <v>148</v>
       </c>
@@ -6309,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="20" customHeight="1">
       <c r="A99" s="52" t="s">
         <v>148</v>
       </c>
@@ -6323,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="20" customHeight="1">
       <c r="A100" s="52" t="s">
         <v>148</v>
       </c>
@@ -6337,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="20" customHeight="1">
       <c r="A101" s="52" t="s">
         <v>103</v>
       </c>
@@ -6351,7 +6375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="20" customHeight="1">
       <c r="A102" s="52" t="s">
         <v>104</v>
       </c>
@@ -6365,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="20" customHeight="1">
       <c r="A103" s="52" t="s">
         <v>105</v>
       </c>
@@ -6379,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="20" customHeight="1">
       <c r="A104" s="52" t="s">
         <v>106</v>
       </c>
@@ -6393,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="20" customHeight="1">
       <c r="A105" s="52" t="s">
         <v>107</v>
       </c>
@@ -6407,7 +6431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="A106" s="52" t="s">
         <v>108</v>
       </c>
@@ -6421,7 +6445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="A107" s="52" t="s">
         <v>149</v>
       </c>
@@ -6435,7 +6459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="20" customHeight="1">
       <c r="A108" s="52" t="s">
         <v>149</v>
       </c>
@@ -6449,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="20" customHeight="1">
       <c r="A109" s="52" t="s">
         <v>120</v>
       </c>
@@ -6463,7 +6487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="20" customHeight="1">
       <c r="A110" s="52" t="s">
         <v>121</v>
       </c>
@@ -6477,7 +6501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="20" customHeight="1">
       <c r="A111" s="52" t="s">
         <v>120</v>
       </c>
@@ -6491,7 +6515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="20" customHeight="1">
       <c r="A112" s="52" t="s">
         <v>121</v>
       </c>
@@ -6505,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="20" customHeight="1">
       <c r="A113" s="52" t="s">
         <v>150</v>
       </c>
@@ -6519,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="20" customHeight="1">
       <c r="A114" s="52" t="s">
         <v>174</v>
       </c>
@@ -6533,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="20" customHeight="1">
       <c r="A115" s="52" t="s">
         <v>114</v>
       </c>
@@ -6547,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="20" customHeight="1">
       <c r="A116" s="52" t="s">
         <v>115</v>
       </c>
@@ -6561,19 +6585,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:4" ht="20" customHeight="1"/>
+    <row r="118" spans="1:4" ht="20" customHeight="1"/>
+    <row r="119" spans="1:4" ht="20" customHeight="1"/>
+    <row r="120" spans="1:4" ht="20" customHeight="1"/>
+    <row r="121" spans="1:4" ht="20" customHeight="1"/>
+    <row r="122" spans="1:4" ht="20" customHeight="1"/>
+    <row r="123" spans="1:4" ht="20" customHeight="1"/>
+    <row r="124" spans="1:4" ht="20" customHeight="1"/>
+    <row r="125" spans="1:4" ht="20" customHeight="1"/>
+    <row r="126" spans="1:4" ht="20" customHeight="1"/>
+    <row r="127" spans="1:4" ht="20" customHeight="1"/>
+    <row r="128" spans="1:4" ht="20" customHeight="1"/>
+    <row r="129" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6581,8 +6605,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
@@ -6591,16 +6615,16 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="52" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="52" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="52" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="52" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="52" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="52" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="52"/>
+    <col min="5" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="83" t="s">
         <v>38</v>
       </c>
@@ -6614,7 +6638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="65" t="s">
         <v>165</v>
       </c>
@@ -6628,7 +6652,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="65" t="s">
         <v>166</v>
       </c>
@@ -6642,7 +6666,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="70" t="s">
         <v>48</v>
       </c>
@@ -6656,16 +6680,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" s="68"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" s="68"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="C7" s="68"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" s="68"/>
     </row>
   </sheetData>
@@ -6675,8 +6699,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
@@ -6685,17 +6709,17 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="52" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="52" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="52" customWidth="1"/>
     <col min="5" max="5" width="14" style="52" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="52"/>
+    <col min="6" max="16384" width="10.83203125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26" customHeight="1">
       <c r="A1" s="76" t="s">
         <v>41</v>
       </c>
@@ -6712,7 +6736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="52" t="s">
         <v>12</v>
       </c>
@@ -6730,7 +6754,7 @@
       </c>
       <c r="F2" s="68"/>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="73" t="s">
         <v>13</v>
       </c>
@@ -6754,46 +6778,49 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="96"/>
+    <col min="1" max="1" width="10.83203125" style="96"/>
     <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="6" customWidth="1"/>
-    <col min="8" max="12" width="11.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="57.75" style="5" customWidth="1"/>
-    <col min="17" max="17" width="44.625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="7"/>
+    <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="11.1640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="57.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="44.6640625" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="89" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="89" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="90" t="s">
         <v>224</v>
       </c>
       <c r="B1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="99" t="s">
         <v>225</v>
       </c>
       <c r="E1" s="90" t="s">
@@ -6814,26 +6841,29 @@
       <c r="J1" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="93" t="s">
+      <c r="K1" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="93" t="s">
+      <c r="L1" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="N1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="O1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="P1" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="90" t="s">
+      <c r="Q1" s="90" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="95">
         <v>1</v>
       </c>
@@ -6870,21 +6900,24 @@
       <c r="L2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M2" s="11">
+      <c r="M2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="11">
         <v>0.2</v>
       </c>
-      <c r="N2" s="12">
-        <f t="shared" ref="N2:N41" si="0">O2/NORMINV(0.95,0,1)</f>
+      <c r="O2" s="12">
+        <f t="shared" ref="O2:O41" si="0">P2/NORMINV(0.95,0,1)</f>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O2" s="13">
+      <c r="P2" s="13">
         <v>0.1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="Q2" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A3" s="95">
         <v>2</v>
       </c>
@@ -6894,7 +6927,7 @@
       <c r="C3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -6915,27 +6948,30 @@
       <c r="J3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="11">
         <v>0.5</v>
       </c>
-      <c r="N3" s="12">
+      <c r="O3" s="12">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O3" s="13">
+      <c r="P3" s="13">
         <v>0.1</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A4" s="95">
         <v>3</v>
       </c>
@@ -6945,7 +6981,7 @@
       <c r="C4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E4" s="16" t="s">
@@ -6966,27 +7002,30 @@
       <c r="J4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12">
+      <c r="M4" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1</v>
+      </c>
+      <c r="O4" s="12">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O4" s="13">
+      <c r="P4" s="13">
         <v>0.5</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A5" s="95">
         <v>4</v>
       </c>
@@ -6996,7 +7035,7 @@
       <c r="C5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E5" s="16" t="s">
@@ -7017,27 +7056,30 @@
       <c r="J5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="11">
         <v>4.3</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5" s="12">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O5" s="13">
-        <v>1</v>
-      </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="95">
         <v>5</v>
       </c>
@@ -7074,21 +7116,24 @@
       <c r="L6" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N6" s="20">
         <v>3</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O6" s="21">
-        <v>1</v>
-      </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A7" s="95">
         <v>6</v>
       </c>
@@ -7098,7 +7143,7 @@
       <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -7119,27 +7164,30 @@
       <c r="J7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N7" s="22">
         <v>20</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <v>2</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="Q7" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A8" s="95">
         <v>7</v>
       </c>
@@ -7149,7 +7197,7 @@
       <c r="C8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -7170,27 +7218,30 @@
       <c r="J8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="22">
         <v>60</v>
       </c>
-      <c r="N8" s="17">
+      <c r="O8" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="23">
         <v>4</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="95">
         <v>8</v>
       </c>
@@ -7200,7 +7251,7 @@
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E9" s="16" t="s">
@@ -7221,28 +7272,31 @@
       <c r="J9" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N9" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O9" s="25">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="O9" s="26">
+      <c r="P9" s="26">
         <v>8</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="27" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="95">
         <v>9</v>
       </c>
@@ -7279,21 +7333,24 @@
       <c r="L10" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N10" s="11">
         <v>0.2</v>
       </c>
-      <c r="N10" s="12">
+      <c r="O10" s="12">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O10" s="13">
+      <c r="P10" s="13">
         <v>0.1</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="Q10" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="95">
         <v>10</v>
       </c>
@@ -7303,7 +7360,7 @@
       <c r="C11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E11" s="16" t="s">
@@ -7324,27 +7381,30 @@
       <c r="J11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N11" s="11">
         <v>0.5</v>
       </c>
-      <c r="N11" s="12">
+      <c r="O11" s="12">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O11" s="13">
+      <c r="P11" s="13">
         <v>0.1</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="Q11" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="95">
         <v>11</v>
       </c>
@@ -7354,7 +7414,7 @@
       <c r="C12" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E12" s="16" t="s">
@@ -7375,27 +7435,30 @@
       <c r="J12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M12" s="11">
-        <v>1</v>
-      </c>
-      <c r="N12" s="12">
+      <c r="M12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="12">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O12" s="13">
+      <c r="P12" s="13">
         <v>0.5</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="Q12" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="95">
         <v>12</v>
       </c>
@@ -7405,7 +7468,7 @@
       <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E13" s="16" t="s">
@@ -7426,27 +7489,30 @@
       <c r="J13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N13" s="11">
         <v>4.3</v>
       </c>
-      <c r="N13" s="12">
+      <c r="O13" s="12">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O13" s="13">
-        <v>1</v>
-      </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="95">
         <v>13</v>
       </c>
@@ -7483,21 +7549,24 @@
       <c r="L14" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M14" s="20">
-        <v>1</v>
-      </c>
-      <c r="N14" s="9">
+      <c r="M14" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N14" s="20">
+        <v>1</v>
+      </c>
+      <c r="O14" s="9">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O14" s="21">
+      <c r="P14" s="21">
         <v>0.5</v>
       </c>
-      <c r="P14" s="14" t="s">
+      <c r="Q14" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="95">
         <v>14</v>
       </c>
@@ -7507,7 +7576,7 @@
       <c r="C15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E15" s="16" t="s">
@@ -7528,27 +7597,30 @@
       <c r="J15" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N15" s="22">
         <v>3</v>
       </c>
-      <c r="N15" s="17">
+      <c r="O15" s="17">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O15" s="23">
-        <v>1</v>
-      </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="95">
         <v>15</v>
       </c>
@@ -7558,7 +7630,7 @@
       <c r="C16" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E16" s="16" t="s">
@@ -7579,27 +7651,30 @@
       <c r="J16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N16" s="22">
         <v>15</v>
       </c>
-      <c r="N16" s="17">
+      <c r="O16" s="17">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <v>3</v>
       </c>
-      <c r="P16" s="19" t="s">
+      <c r="Q16" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="95">
         <v>16</v>
       </c>
@@ -7609,7 +7684,7 @@
       <c r="C17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E17" s="16" t="s">
@@ -7630,27 +7705,30 @@
       <c r="J17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N17" s="22">
         <v>30</v>
       </c>
-      <c r="N17" s="17">
+      <c r="O17" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <v>4</v>
       </c>
-      <c r="P17" s="19" t="s">
+      <c r="Q17" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="95">
         <v>17</v>
       </c>
@@ -7687,21 +7765,24 @@
       <c r="L18" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N18" s="20">
         <v>5</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <f t="shared" si="0"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="O18" s="21">
+      <c r="P18" s="21">
         <v>0.3</v>
       </c>
-      <c r="P18" s="14" t="s">
+      <c r="Q18" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="95">
         <v>18</v>
       </c>
@@ -7711,7 +7792,7 @@
       <c r="C19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E19" s="16" t="s">
@@ -7732,27 +7813,30 @@
       <c r="J19" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N19" s="22">
         <v>10</v>
       </c>
-      <c r="N19" s="17">
+      <c r="O19" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <v>2</v>
       </c>
-      <c r="P19" s="19" t="s">
+      <c r="Q19" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="95">
         <v>19</v>
       </c>
@@ -7762,7 +7846,7 @@
       <c r="C20" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E20" s="16" t="s">
@@ -7783,27 +7867,30 @@
       <c r="J20" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N20" s="22">
         <v>21</v>
       </c>
-      <c r="N20" s="17">
+      <c r="O20" s="17">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>3</v>
       </c>
-      <c r="P20" s="19" t="s">
+      <c r="Q20" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="95">
         <v>20</v>
       </c>
@@ -7813,7 +7900,7 @@
       <c r="C21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E21" s="16" t="s">
@@ -7834,28 +7921,31 @@
       <c r="J21" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N21" s="22">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="N21" s="17">
+      <c r="O21" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>4</v>
       </c>
-      <c r="P21" s="19" t="s">
+      <c r="Q21" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="95">
         <v>21</v>
       </c>
@@ -7892,21 +7982,24 @@
       <c r="L22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N22" s="20">
         <v>5</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="9">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O22" s="21">
+      <c r="P22" s="21">
         <v>0.5</v>
       </c>
-      <c r="P22" s="14" t="s">
+      <c r="Q22" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="95">
         <v>22</v>
       </c>
@@ -7916,7 +8009,7 @@
       <c r="C23" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E23" s="16" t="s">
@@ -7937,27 +8030,30 @@
       <c r="J23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N23" s="22">
         <v>17</v>
       </c>
-      <c r="N23" s="17">
+      <c r="O23" s="17">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O23" s="23">
-        <v>1</v>
-      </c>
-      <c r="P23" s="19" t="s">
+      <c r="P23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="95">
         <v>23</v>
       </c>
@@ -7967,7 +8063,7 @@
       <c r="C24" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E24" s="16" t="s">
@@ -7988,27 +8084,30 @@
       <c r="J24" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N24" s="22">
         <v>37</v>
       </c>
-      <c r="N24" s="17">
+      <c r="O24" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <v>2</v>
       </c>
-      <c r="P24" s="19" t="s">
+      <c r="Q24" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="95">
         <v>24</v>
       </c>
@@ -8018,7 +8117,7 @@
       <c r="C25" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E25" s="16" t="s">
@@ -8039,28 +8138,31 @@
       <c r="J25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N25" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N25" s="17">
+      <c r="O25" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O25" s="23">
+      <c r="P25" s="23">
         <v>4</v>
       </c>
-      <c r="P25" s="19" t="s">
+      <c r="Q25" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="95">
         <v>25</v>
       </c>
@@ -8097,21 +8199,24 @@
       <c r="L26" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M26" s="20">
-        <v>1</v>
-      </c>
-      <c r="N26" s="9">
+      <c r="M26" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N26" s="20">
+        <v>1</v>
+      </c>
+      <c r="O26" s="9">
         <f t="shared" si="0"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="O26" s="21">
+      <c r="P26" s="21">
         <v>0.2</v>
       </c>
-      <c r="P26" s="14" t="s">
+      <c r="Q26" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A27" s="95">
         <v>26</v>
       </c>
@@ -8121,7 +8226,7 @@
       <c r="C27" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E27" s="16" t="s">
@@ -8142,27 +8247,30 @@
       <c r="J27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="10" t="s">
+      <c r="K27" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N27" s="22">
         <v>4</v>
       </c>
-      <c r="N27" s="17">
+      <c r="O27" s="17">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <v>0.5</v>
       </c>
-      <c r="P27" s="19" t="s">
+      <c r="Q27" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="95">
         <v>27</v>
       </c>
@@ -8172,7 +8280,7 @@
       <c r="C28" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -8193,27 +8301,30 @@
       <c r="J28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N28" s="22">
         <v>8</v>
       </c>
-      <c r="N28" s="17">
+      <c r="O28" s="17">
         <f t="shared" si="0"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <v>1.5</v>
       </c>
-      <c r="P28" s="19" t="s">
+      <c r="Q28" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="95">
         <v>28</v>
       </c>
@@ -8223,7 +8334,7 @@
       <c r="C29" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -8244,27 +8355,30 @@
       <c r="J29" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N29" s="22">
         <v>12</v>
       </c>
-      <c r="N29" s="17">
+      <c r="O29" s="17">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O29" s="23">
+      <c r="P29" s="23">
         <v>3</v>
       </c>
-      <c r="P29" s="19" t="s">
+      <c r="Q29" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A30" s="95">
         <v>29</v>
       </c>
@@ -8301,21 +8415,24 @@
       <c r="L30" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M30" s="20">
-        <v>1</v>
-      </c>
-      <c r="N30" s="9">
-        <f t="shared" ref="N30:N37" si="1">O30/NORMINV(0.95,0,1)</f>
+      <c r="M30" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N30" s="20">
+        <v>1</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" ref="O30:O37" si="1">P30/NORMINV(0.95,0,1)</f>
         <v>0.12159136638235388</v>
       </c>
-      <c r="O30" s="21">
+      <c r="P30" s="21">
         <v>0.2</v>
       </c>
-      <c r="P30" s="14" t="s">
+      <c r="Q30" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A31" s="95">
         <v>30</v>
       </c>
@@ -8325,7 +8442,7 @@
       <c r="C31" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E31" s="16" t="s">
@@ -8346,27 +8463,30 @@
       <c r="J31" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N31" s="22">
         <v>4</v>
       </c>
-      <c r="N31" s="17">
+      <c r="O31" s="17">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O31" s="23">
+      <c r="P31" s="23">
         <v>0.5</v>
       </c>
-      <c r="P31" s="19" t="s">
+      <c r="Q31" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A32" s="95">
         <v>31</v>
       </c>
@@ -8376,7 +8496,7 @@
       <c r="C32" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E32" s="16" t="s">
@@ -8397,27 +8517,30 @@
       <c r="J32" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K32" s="10" t="s">
+      <c r="K32" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N32" s="22">
         <v>8</v>
       </c>
-      <c r="N32" s="17">
+      <c r="O32" s="17">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="O32" s="23">
+      <c r="P32" s="23">
         <v>1.5</v>
       </c>
-      <c r="P32" s="19" t="s">
+      <c r="Q32" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="95">
         <v>32</v>
       </c>
@@ -8427,7 +8550,7 @@
       <c r="C33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E33" s="16" t="s">
@@ -8448,27 +8571,30 @@
       <c r="J33" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N33" s="22">
         <v>12</v>
       </c>
-      <c r="N33" s="17">
+      <c r="O33" s="17">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O33" s="23">
+      <c r="P33" s="23">
         <v>3</v>
       </c>
-      <c r="P33" s="19" t="s">
+      <c r="Q33" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="95">
         <v>33</v>
       </c>
@@ -8505,21 +8631,24 @@
       <c r="L34" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M34" s="20">
-        <v>1</v>
-      </c>
-      <c r="N34" s="9">
+      <c r="M34" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N34" s="20">
+        <v>1</v>
+      </c>
+      <c r="O34" s="9">
         <f t="shared" si="1"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="O34" s="21">
+      <c r="P34" s="21">
         <v>0.2</v>
       </c>
-      <c r="P34" s="14" t="s">
+      <c r="Q34" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A35" s="95">
         <v>34</v>
       </c>
@@ -8529,7 +8658,7 @@
       <c r="C35" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E35" s="16" t="s">
@@ -8550,27 +8679,30 @@
       <c r="J35" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N35" s="22">
         <v>4</v>
       </c>
-      <c r="N35" s="17">
+      <c r="O35" s="17">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O35" s="23">
+      <c r="P35" s="23">
         <v>0.5</v>
       </c>
-      <c r="P35" s="19" t="s">
+      <c r="Q35" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A36" s="95">
         <v>35</v>
       </c>
@@ -8580,7 +8712,7 @@
       <c r="C36" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E36" s="16" t="s">
@@ -8601,27 +8733,30 @@
       <c r="J36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N36" s="22">
         <v>8</v>
       </c>
-      <c r="N36" s="17">
+      <c r="O36" s="17">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="O36" s="23">
+      <c r="P36" s="23">
         <v>1.5</v>
       </c>
-      <c r="P36" s="19" t="s">
+      <c r="Q36" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="95">
         <v>36</v>
       </c>
@@ -8631,7 +8766,7 @@
       <c r="C37" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E37" s="16" t="s">
@@ -8652,27 +8787,30 @@
       <c r="J37" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N37" s="22">
         <v>12</v>
       </c>
-      <c r="N37" s="17">
+      <c r="O37" s="17">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O37" s="23">
+      <c r="P37" s="23">
         <v>3</v>
       </c>
-      <c r="P37" s="19" t="s">
+      <c r="Q37" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="95">
         <v>37</v>
       </c>
@@ -8709,21 +8847,24 @@
       <c r="L38" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N38" s="20">
         <v>3</v>
       </c>
-      <c r="N38" s="9">
+      <c r="O38" s="9">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O38" s="21">
-        <v>1</v>
-      </c>
-      <c r="P38" s="14" t="s">
+      <c r="P38" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="95">
         <v>38</v>
       </c>
@@ -8733,7 +8874,7 @@
       <c r="C39" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E39" s="16" t="s">
@@ -8754,27 +8895,30 @@
       <c r="J39" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N39" s="22">
         <v>20</v>
       </c>
-      <c r="N39" s="17">
+      <c r="O39" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O39" s="23">
+      <c r="P39" s="23">
         <v>2</v>
       </c>
-      <c r="P39" s="19" t="s">
+      <c r="Q39" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="95">
         <v>39</v>
       </c>
@@ -8784,7 +8928,7 @@
       <c r="C40" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E40" s="16" t="s">
@@ -8805,27 +8949,30 @@
       <c r="J40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N40" s="22">
         <v>60</v>
       </c>
-      <c r="N40" s="17">
+      <c r="O40" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O40" s="23">
+      <c r="P40" s="23">
         <v>4</v>
       </c>
-      <c r="P40" s="19" t="s">
+      <c r="Q40" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="95">
         <v>40</v>
       </c>
@@ -8835,7 +8982,7 @@
       <c r="C41" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E41" s="16" t="s">
@@ -8856,28 +9003,31 @@
       <c r="J41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N41" s="22">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="N41" s="17">
+      <c r="O41" s="17">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>8</v>
       </c>
-      <c r="P41" s="19" t="s">
+      <c r="Q41" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="95">
         <v>41</v>
       </c>
@@ -8914,21 +9064,24 @@
       <c r="L42" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N42" s="20">
         <v>5</v>
       </c>
-      <c r="N42" s="9">
-        <f t="shared" ref="N42:N61" si="2">O42/NORMINV(0.95,0,1)</f>
+      <c r="O42" s="9">
+        <f t="shared" ref="O42:O61" si="2">P42/NORMINV(0.95,0,1)</f>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O42" s="21">
+      <c r="P42" s="21">
         <v>0.5</v>
       </c>
-      <c r="P42" s="14" t="s">
+      <c r="Q42" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="95">
         <v>42</v>
       </c>
@@ -8938,7 +9091,7 @@
       <c r="C43" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E43" s="16" t="s">
@@ -8959,27 +9112,30 @@
       <c r="J43" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N43" s="22">
         <v>17</v>
       </c>
-      <c r="N43" s="17">
+      <c r="O43" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O43" s="23">
-        <v>1</v>
-      </c>
-      <c r="P43" s="19" t="s">
+      <c r="P43" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="95">
         <v>43</v>
       </c>
@@ -8989,7 +9145,7 @@
       <c r="C44" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E44" s="16" t="s">
@@ -9010,27 +9166,30 @@
       <c r="J44" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N44" s="22">
         <v>37</v>
       </c>
-      <c r="N44" s="17">
+      <c r="O44" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O44" s="23">
+      <c r="P44" s="23">
         <v>2</v>
       </c>
-      <c r="P44" s="19" t="s">
+      <c r="Q44" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="95">
         <v>44</v>
       </c>
@@ -9040,7 +9199,7 @@
       <c r="C45" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E45" s="16" t="s">
@@ -9061,28 +9220,31 @@
       <c r="J45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N45" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N45" s="17">
+      <c r="O45" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O45" s="23">
+      <c r="P45" s="23">
         <v>4</v>
       </c>
-      <c r="P45" s="19" t="s">
+      <c r="Q45" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="95">
         <v>45</v>
       </c>
@@ -9119,21 +9281,24 @@
       <c r="L46" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N46" s="20">
         <v>5</v>
       </c>
-      <c r="N46" s="9">
+      <c r="O46" s="9">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O46" s="21">
+      <c r="P46" s="21">
         <v>0.5</v>
       </c>
-      <c r="P46" s="14" t="s">
+      <c r="Q46" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="95">
         <v>46</v>
       </c>
@@ -9143,7 +9308,7 @@
       <c r="C47" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E47" s="16" t="s">
@@ -9164,27 +9329,30 @@
       <c r="J47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N47" s="22">
         <v>17</v>
       </c>
-      <c r="N47" s="17">
+      <c r="O47" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O47" s="23">
-        <v>1</v>
-      </c>
-      <c r="P47" s="19" t="s">
+      <c r="P47" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A48" s="95">
         <v>47</v>
       </c>
@@ -9194,7 +9362,7 @@
       <c r="C48" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E48" s="16" t="s">
@@ -9215,27 +9383,30 @@
       <c r="J48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N48" s="22">
         <v>37</v>
       </c>
-      <c r="N48" s="17">
+      <c r="O48" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>2</v>
       </c>
-      <c r="P48" s="19" t="s">
+      <c r="Q48" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A49" s="95">
         <v>48</v>
       </c>
@@ -9245,7 +9416,7 @@
       <c r="C49" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -9266,28 +9437,31 @@
       <c r="J49" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N49" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N49" s="17">
+      <c r="O49" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>4</v>
       </c>
-      <c r="P49" s="19" t="s">
+      <c r="Q49" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A50" s="95">
         <v>49</v>
       </c>
@@ -9324,21 +9498,24 @@
       <c r="L50" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N50" s="20">
         <v>5</v>
       </c>
-      <c r="N50" s="9">
+      <c r="O50" s="9">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O50" s="21">
+      <c r="P50" s="21">
         <v>0.5</v>
       </c>
-      <c r="P50" s="14" t="s">
+      <c r="Q50" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A51" s="95">
         <v>50</v>
       </c>
@@ -9348,7 +9525,7 @@
       <c r="C51" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -9369,27 +9546,30 @@
       <c r="J51" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K51" s="10" t="s">
+      <c r="K51" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N51" s="22">
         <v>17</v>
       </c>
-      <c r="N51" s="17">
+      <c r="O51" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O51" s="23">
-        <v>1</v>
-      </c>
-      <c r="P51" s="19" t="s">
+      <c r="P51" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A52" s="95">
         <v>51</v>
       </c>
@@ -9399,7 +9579,7 @@
       <c r="C52" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E52" s="16" t="s">
@@ -9420,27 +9600,30 @@
       <c r="J52" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L52" s="10" t="s">
+      <c r="L52" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N52" s="22">
         <v>37</v>
       </c>
-      <c r="N52" s="17">
+      <c r="O52" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O52" s="23">
+      <c r="P52" s="23">
         <v>2</v>
       </c>
-      <c r="P52" s="19" t="s">
+      <c r="Q52" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A53" s="95">
         <v>52</v>
       </c>
@@ -9450,7 +9633,7 @@
       <c r="C53" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E53" s="16" t="s">
@@ -9471,28 +9654,31 @@
       <c r="J53" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L53" s="10" t="s">
+      <c r="L53" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N53" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N53" s="17">
+      <c r="O53" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O53" s="23">
+      <c r="P53" s="23">
         <v>4</v>
       </c>
-      <c r="P53" s="19" t="s">
+      <c r="Q53" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A54" s="95">
         <v>53</v>
       </c>
@@ -9529,21 +9715,24 @@
       <c r="L54" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="N54" s="20">
         <v>5</v>
       </c>
-      <c r="N54" s="9">
+      <c r="O54" s="9">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O54" s="21">
+      <c r="P54" s="21">
         <v>0.5</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="Q54" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A55" s="95">
         <v>54</v>
       </c>
@@ -9553,7 +9742,7 @@
       <c r="C55" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -9574,27 +9763,30 @@
       <c r="J55" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L55" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N55" s="22">
         <v>17</v>
       </c>
-      <c r="N55" s="17">
+      <c r="O55" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O55" s="23">
-        <v>1</v>
-      </c>
-      <c r="P55" s="19" t="s">
+      <c r="P55" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A56" s="95">
         <v>55</v>
       </c>
@@ -9604,7 +9796,7 @@
       <c r="C56" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E56" s="16" t="s">
@@ -9625,27 +9817,30 @@
       <c r="J56" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K56" s="10" t="s">
+      <c r="K56" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L56" s="10" t="s">
+      <c r="L56" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N56" s="22">
         <v>37</v>
       </c>
-      <c r="N56" s="17">
+      <c r="O56" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O56" s="23">
+      <c r="P56" s="23">
         <v>2</v>
       </c>
-      <c r="P56" s="19" t="s">
+      <c r="Q56" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A57" s="95">
         <v>56</v>
       </c>
@@ -9655,7 +9850,7 @@
       <c r="C57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="28" t="s">
         <v>226</v>
       </c>
       <c r="E57" s="28" t="s">
@@ -9676,28 +9871,31 @@
       <c r="J57" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="N57" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N57" s="25">
+      <c r="O57" s="25">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O57" s="26">
+      <c r="P57" s="26">
         <v>4</v>
       </c>
-      <c r="P57" s="30" t="s">
+      <c r="Q57" s="30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A58" s="95">
         <v>57</v>
       </c>
@@ -9707,7 +9905,7 @@
       <c r="C58" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E58" s="16" t="s">
@@ -9728,27 +9926,30 @@
       <c r="J58" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N58" s="22">
         <v>5</v>
       </c>
-      <c r="N58" s="17">
+      <c r="O58" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O58" s="21">
-        <v>1</v>
-      </c>
-      <c r="P58" s="19" t="s">
+      <c r="P58" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A59" s="95">
         <v>58</v>
       </c>
@@ -9758,7 +9959,7 @@
       <c r="C59" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E59" s="16" t="s">
@@ -9779,27 +9980,30 @@
       <c r="J59" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N59" s="22">
         <v>20</v>
       </c>
-      <c r="N59" s="17">
+      <c r="O59" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="23">
         <v>2</v>
       </c>
-      <c r="P59" s="19" t="s">
+      <c r="Q59" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A60" s="95">
         <v>59</v>
       </c>
@@ -9809,7 +10013,7 @@
       <c r="C60" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E60" s="16" t="s">
@@ -9830,27 +10034,30 @@
       <c r="J60" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N60" s="22">
         <v>50</v>
       </c>
-      <c r="N60" s="17">
+      <c r="O60" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="23">
         <v>4</v>
       </c>
-      <c r="P60" s="19" t="s">
+      <c r="Q60" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A61" s="95">
         <v>60</v>
       </c>
@@ -9860,7 +10067,7 @@
       <c r="C61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="28" t="s">
         <v>226</v>
       </c>
       <c r="E61" s="28" t="s">
@@ -9881,28 +10088,31 @@
       <c r="J61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="M61" s="24">
+      <c r="M61" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="N61" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="N61" s="25">
+      <c r="O61" s="25">
         <f t="shared" si="2"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="O61" s="26">
+      <c r="P61" s="26">
         <v>8</v>
       </c>
-      <c r="P61" s="30" t="s">
+      <c r="Q61" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A62" s="95">
         <v>61</v>
       </c>
@@ -9912,7 +10122,7 @@
       <c r="C62" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -9933,26 +10143,29 @@
       <c r="J62" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N62" s="20">
         <v>5</v>
       </c>
-      <c r="N62" s="9">
+      <c r="O62" s="9">
         <v>0.30397841595588471</v>
       </c>
-      <c r="O62" s="21">
+      <c r="P62" s="21">
         <v>0.5</v>
       </c>
-      <c r="P62" s="19" t="s">
+      <c r="Q62" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A63" s="95">
         <v>62</v>
       </c>
@@ -9962,7 +10175,7 @@
       <c r="C63" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E63" s="16" t="s">
@@ -9983,26 +10196,29 @@
       <c r="J63" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N63" s="22">
         <v>17</v>
       </c>
-      <c r="N63" s="17">
+      <c r="O63" s="17">
         <v>0.60795683191176941</v>
       </c>
-      <c r="O63" s="23">
-        <v>1</v>
-      </c>
-      <c r="P63" s="19" t="s">
+      <c r="P63" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A64" s="95">
         <v>63</v>
       </c>
@@ -10012,7 +10228,7 @@
       <c r="C64" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E64" s="16" t="s">
@@ -10033,26 +10249,29 @@
       <c r="J64" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N64" s="22">
         <v>37</v>
       </c>
-      <c r="N64" s="17">
+      <c r="O64" s="17">
         <v>1.2159136638235388</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="23">
         <v>2</v>
       </c>
-      <c r="P64" s="19" t="s">
+      <c r="Q64" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A65" s="95">
         <v>64</v>
       </c>
@@ -10062,7 +10281,7 @@
       <c r="C65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="28" t="s">
         <v>226</v>
       </c>
       <c r="E65" s="28" t="s">
@@ -10083,27 +10302,30 @@
       <c r="J65" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="M65" s="24">
+      <c r="M65" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="N65" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N65" s="29">
+      <c r="O65" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="O65" s="26">
+      <c r="P65" s="26">
         <v>4</v>
       </c>
-      <c r="P65" s="30" t="s">
+      <c r="Q65" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A66" s="95">
         <v>65</v>
       </c>
@@ -10113,7 +10335,7 @@
       <c r="C66" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -10134,26 +10356,29 @@
       <c r="J66" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N66" s="20">
         <v>5</v>
       </c>
-      <c r="N66" s="9">
+      <c r="O66" s="9">
         <v>0.30397841595588471</v>
       </c>
-      <c r="O66" s="21">
+      <c r="P66" s="21">
         <v>0.5</v>
       </c>
-      <c r="P66" s="19" t="s">
+      <c r="Q66" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A67" s="95">
         <v>66</v>
       </c>
@@ -10163,7 +10388,7 @@
       <c r="C67" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E67" s="16" t="s">
@@ -10184,26 +10409,29 @@
       <c r="J67" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N67" s="22">
         <v>17</v>
       </c>
-      <c r="N67" s="17">
+      <c r="O67" s="17">
         <v>0.60795683191176941</v>
       </c>
-      <c r="O67" s="23">
-        <v>1</v>
-      </c>
-      <c r="P67" s="19" t="s">
+      <c r="P67" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A68" s="95">
         <v>67</v>
       </c>
@@ -10213,7 +10441,7 @@
       <c r="C68" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="16" t="s">
         <v>226</v>
       </c>
       <c r="E68" s="16" t="s">
@@ -10234,26 +10462,29 @@
       <c r="J68" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="N68" s="22">
         <v>37</v>
       </c>
-      <c r="N68" s="17">
+      <c r="O68" s="17">
         <v>1.2159136638235388</v>
       </c>
-      <c r="O68" s="23">
+      <c r="P68" s="23">
         <v>2</v>
       </c>
-      <c r="P68" s="19" t="s">
+      <c r="Q68" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="15" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A69" s="95">
         <v>68</v>
       </c>
@@ -10263,7 +10494,7 @@
       <c r="C69" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="28" t="s">
         <v>226</v>
       </c>
       <c r="E69" s="28" t="s">
@@ -10284,28 +10515,31 @@
       <c r="J69" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="M69" s="24">
+      <c r="M69" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="N69" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N69" s="29">
+      <c r="O69" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="O69" s="26">
+      <c r="P69" s="26">
         <v>4</v>
       </c>
-      <c r="P69" s="30" t="s">
+      <c r="Q69" s="30" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:P68">
+  <sortState ref="B5:Q68">
     <sortCondition ref="B133:B196"/>
     <sortCondition ref="C133:C196"/>
   </sortState>
@@ -10430,10 +10664,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B61">
-      <formula1>[0]!ComponentTypeList</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B61" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>pwtp_400ML_wnpg.xlsx!ComponentTypeList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B69" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -10442,7 +10676,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>asset_names!$A$2:$A$30</xm:f>
           </x14:formula1>
@@ -10455,8 +10689,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFF6565"/>
   </sheetPr>
   <dimension ref="A1:C342"/>
@@ -10465,16 +10699,16 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="7"/>
+    <col min="2" max="2" width="14.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="26" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -10485,7 +10719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -10496,7 +10730,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -10507,7 +10741,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10518,7 +10752,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -10529,7 +10763,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -10540,7 +10774,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -10551,7 +10785,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -10562,7 +10796,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -10573,7 +10807,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -10584,7 +10818,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -10595,7 +10829,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -10606,7 +10840,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -10617,7 +10851,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -10628,7 +10862,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -10639,7 +10873,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -10650,7 +10884,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -10661,7 +10895,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -10672,7 +10906,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -10683,7 +10917,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -10694,7 +10928,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -10705,7 +10939,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -10716,7 +10950,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -10727,7 +10961,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -10738,7 +10972,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -10749,7 +10983,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -10760,7 +10994,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -10771,7 +11005,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>196</v>
       </c>
@@ -10782,7 +11016,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -10793,7 +11027,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -10804,7 +11038,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -10815,7 +11049,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -10826,7 +11060,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -10837,7 +11071,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -10848,7 +11082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -10859,7 +11093,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -10870,7 +11104,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -10881,7 +11115,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -10892,7 +11126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -10903,7 +11137,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -10914,7 +11148,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -10925,7 +11159,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -10936,7 +11170,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -10947,7 +11181,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -10958,7 +11192,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -10969,7 +11203,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -10980,7 +11214,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -10991,7 +11225,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -11002,7 +11236,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -11013,7 +11247,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -11024,7 +11258,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -11035,7 +11269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -11046,7 +11280,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -11057,7 +11291,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -11068,7 +11302,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -11079,7 +11313,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -11090,7 +11324,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -11101,7 +11335,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -11112,7 +11346,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -11123,7 +11357,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -11134,7 +11368,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -11145,7 +11379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -11156,7 +11390,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -11167,7 +11401,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -11178,7 +11412,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -11189,7 +11423,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -11200,7 +11434,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -11211,7 +11445,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -11222,7 +11456,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -11233,7 +11467,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -11244,7 +11478,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -11255,7 +11489,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -11266,7 +11500,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -11277,7 +11511,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -11288,7 +11522,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -11299,7 +11533,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -11310,7 +11544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="15" customFormat="1" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -11321,7 +11555,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="16">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -11332,7 +11566,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="16">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -11343,7 +11577,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="16">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -11354,7 +11588,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="16">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -11365,7 +11599,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -11376,7 +11610,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="16">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -11387,7 +11621,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="16">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -11398,7 +11632,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="16">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -11409,7 +11643,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="16">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -11420,7 +11654,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="16">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -11431,7 +11665,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="16">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -11442,7 +11676,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="16">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -11453,7 +11687,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="16">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -11464,7 +11698,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="16">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -11475,7 +11709,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="16">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -11486,7 +11720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="16">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -11497,7 +11731,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="16">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -11508,7 +11742,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="16">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -11519,7 +11753,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="16">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -11530,7 +11764,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="16">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -11541,7 +11775,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="16">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -11552,7 +11786,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="16">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -11563,7 +11797,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="16">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -11574,7 +11808,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="16">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -11585,7 +11819,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="16">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -11596,7 +11830,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="16">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -11607,7 +11841,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="16">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -11618,7 +11852,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="16">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -11629,7 +11863,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="16">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -11640,7 +11874,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="16">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -11651,7 +11885,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="16">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -11662,7 +11896,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="16">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -11673,7 +11907,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="16">
       <c r="A110" t="s">
         <v>95</v>
       </c>
@@ -11684,7 +11918,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="16">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -11695,7 +11929,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="16">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -11706,7 +11940,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="16">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -11717,7 +11951,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="16">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -11728,7 +11962,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="16">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -11739,7 +11973,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="16">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -11750,7 +11984,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="16">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -11761,7 +11995,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="16">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -11772,7 +12006,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="16">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -11783,7 +12017,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="16">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -11794,7 +12028,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="16">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -11805,7 +12039,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="16">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -11816,7 +12050,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="16">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -11827,7 +12061,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="16">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -11838,7 +12072,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="16">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -11849,7 +12083,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="16">
       <c r="A126" t="s">
         <v>70</v>
       </c>
@@ -11860,7 +12094,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="16">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -11871,7 +12105,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="16">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -11882,7 +12116,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="16">
       <c r="A129" t="s">
         <v>70</v>
       </c>
@@ -11893,7 +12127,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="16">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -11904,7 +12138,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="16">
       <c r="A131" t="s">
         <v>71</v>
       </c>
@@ -11915,7 +12149,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="16">
       <c r="A132" t="s">
         <v>71</v>
       </c>
@@ -11926,7 +12160,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="16">
       <c r="A133" t="s">
         <v>71</v>
       </c>
@@ -11937,7 +12171,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="16">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -11948,7 +12182,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="16">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -11959,7 +12193,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="16">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -11970,7 +12204,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="16">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -11981,7 +12215,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="16">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -11992,7 +12226,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="16">
       <c r="A139" t="s">
         <v>73</v>
       </c>
@@ -12003,7 +12237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="16">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -12014,7 +12248,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="16">
       <c r="A141" t="s">
         <v>73</v>
       </c>
@@ -12025,7 +12259,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="16">
       <c r="A142" t="s">
         <v>74</v>
       </c>
@@ -12036,7 +12270,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="16">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -12047,7 +12281,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="16">
       <c r="A144" t="s">
         <v>74</v>
       </c>
@@ -12058,7 +12292,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="16">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -12069,7 +12303,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="16">
       <c r="A146" t="s">
         <v>75</v>
       </c>
@@ -12080,7 +12314,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="16">
       <c r="A147" t="s">
         <v>75</v>
       </c>
@@ -12091,7 +12325,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="16">
       <c r="A148" t="s">
         <v>75</v>
       </c>
@@ -12102,7 +12336,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="16">
       <c r="A149" t="s">
         <v>75</v>
       </c>
@@ -12113,7 +12347,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="16">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -12124,7 +12358,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="16">
       <c r="A151" t="s">
         <v>76</v>
       </c>
@@ -12135,7 +12369,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="16">
       <c r="A152" t="s">
         <v>76</v>
       </c>
@@ -12146,7 +12380,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="16">
       <c r="A153" t="s">
         <v>76</v>
       </c>
@@ -12157,7 +12391,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="16">
       <c r="A154" t="s">
         <v>77</v>
       </c>
@@ -12168,7 +12402,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="16">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -12179,7 +12413,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="16">
       <c r="A156" t="s">
         <v>77</v>
       </c>
@@ -12190,7 +12424,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="16">
       <c r="A157" t="s">
         <v>77</v>
       </c>
@@ -12201,7 +12435,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="16">
       <c r="A158" t="s">
         <v>194</v>
       </c>
@@ -12212,7 +12446,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="16">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -12223,7 +12457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="16">
       <c r="A160" t="s">
         <v>194</v>
       </c>
@@ -12234,7 +12468,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="16">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -12245,7 +12479,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="16">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -12256,7 +12490,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="16">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -12267,7 +12501,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="16">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -12278,7 +12512,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="16">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -12289,7 +12523,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="16">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -12300,7 +12534,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="16">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -12311,7 +12545,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="16">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -12322,7 +12556,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="16">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -12333,7 +12567,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="16">
       <c r="A170" t="s">
         <v>88</v>
       </c>
@@ -12344,7 +12578,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="16">
       <c r="A171" t="s">
         <v>88</v>
       </c>
@@ -12355,7 +12589,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="16">
       <c r="A172" t="s">
         <v>88</v>
       </c>
@@ -12366,7 +12600,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="16">
       <c r="A173" t="s">
         <v>88</v>
       </c>
@@ -12377,7 +12611,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="16">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -12388,7 +12622,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="16">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -12399,7 +12633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="16">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -12410,7 +12644,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="16">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -12421,7 +12655,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="16">
       <c r="A178" t="s">
         <v>87</v>
       </c>
@@ -12432,7 +12666,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="16">
       <c r="A179" t="s">
         <v>87</v>
       </c>
@@ -12443,7 +12677,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="16">
       <c r="A180" t="s">
         <v>87</v>
       </c>
@@ -12454,7 +12688,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="16">
       <c r="A181" t="s">
         <v>87</v>
       </c>
@@ -12465,7 +12699,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="16">
       <c r="A182" t="s">
         <v>143</v>
       </c>
@@ -12476,7 +12710,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="16">
       <c r="A183" t="s">
         <v>143</v>
       </c>
@@ -12487,7 +12721,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="16">
       <c r="A184" t="s">
         <v>143</v>
       </c>
@@ -12498,7 +12732,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="16">
       <c r="A185" t="s">
         <v>143</v>
       </c>
@@ -12509,7 +12743,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="16">
       <c r="A186" t="s">
         <v>146</v>
       </c>
@@ -12520,7 +12754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="16">
       <c r="A187" t="s">
         <v>146</v>
       </c>
@@ -12531,7 +12765,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="16">
       <c r="A188" t="s">
         <v>146</v>
       </c>
@@ -12542,7 +12776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="16">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -12553,7 +12787,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="16">
       <c r="A190" t="s">
         <v>149</v>
       </c>
@@ -12564,7 +12798,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="16">
       <c r="A191" t="s">
         <v>149</v>
       </c>
@@ -12575,7 +12809,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="16">
       <c r="A192" t="s">
         <v>149</v>
       </c>
@@ -12586,7 +12820,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="16">
       <c r="A193" t="s">
         <v>149</v>
       </c>
@@ -12597,7 +12831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="16">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -12608,7 +12842,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="16">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -12619,7 +12853,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="16">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -12630,7 +12864,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="16">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -12641,7 +12875,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="16">
       <c r="A198" t="s">
         <v>145</v>
       </c>
@@ -12652,7 +12886,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="16">
       <c r="A199" t="s">
         <v>145</v>
       </c>
@@ -12663,7 +12897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="16">
       <c r="A200" t="s">
         <v>145</v>
       </c>
@@ -12674,7 +12908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="16">
       <c r="A201" t="s">
         <v>145</v>
       </c>
@@ -12685,7 +12919,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="16">
       <c r="A202" t="s">
         <v>124</v>
       </c>
@@ -12696,7 +12930,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="16">
       <c r="A203" t="s">
         <v>124</v>
       </c>
@@ -12707,7 +12941,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="16">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -12718,7 +12952,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="16">
       <c r="A205" t="s">
         <v>124</v>
       </c>
@@ -12729,7 +12963,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="16">
       <c r="A206" t="s">
         <v>125</v>
       </c>
@@ -12740,7 +12974,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="16">
       <c r="A207" t="s">
         <v>125</v>
       </c>
@@ -12751,7 +12985,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="16">
       <c r="A208" t="s">
         <v>125</v>
       </c>
@@ -12762,7 +12996,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="16">
       <c r="A209" t="s">
         <v>125</v>
       </c>
@@ -12773,7 +13007,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="16">
       <c r="A210" t="s">
         <v>126</v>
       </c>
@@ -12784,7 +13018,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="16">
       <c r="A211" t="s">
         <v>126</v>
       </c>
@@ -12795,7 +13029,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="16">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -12806,7 +13040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="16">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -12817,7 +13051,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="16">
       <c r="A214" t="s">
         <v>127</v>
       </c>
@@ -12828,7 +13062,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="16">
       <c r="A215" t="s">
         <v>127</v>
       </c>
@@ -12839,7 +13073,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="16">
       <c r="A216" t="s">
         <v>127</v>
       </c>
@@ -12850,7 +13084,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="16">
       <c r="A217" t="s">
         <v>127</v>
       </c>
@@ -12861,7 +13095,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="16">
       <c r="A218" t="s">
         <v>128</v>
       </c>
@@ -12872,7 +13106,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="16">
       <c r="A219" t="s">
         <v>128</v>
       </c>
@@ -12883,7 +13117,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="16">
       <c r="A220" t="s">
         <v>128</v>
       </c>
@@ -12894,7 +13128,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="16">
       <c r="A221" t="s">
         <v>128</v>
       </c>
@@ -12905,7 +13139,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="16">
       <c r="A222" t="s">
         <v>129</v>
       </c>
@@ -12916,7 +13150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="16">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -12927,7 +13161,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="16">
       <c r="A224" t="s">
         <v>129</v>
       </c>
@@ -12938,7 +13172,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="16">
       <c r="A225" t="s">
         <v>129</v>
       </c>
@@ -12949,7 +13183,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="16">
       <c r="A226" t="s">
         <v>130</v>
       </c>
@@ -12960,7 +13194,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="16">
       <c r="A227" t="s">
         <v>130</v>
       </c>
@@ -12971,7 +13205,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="16">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -12982,7 +13216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="16">
       <c r="A229" t="s">
         <v>130</v>
       </c>
@@ -12993,7 +13227,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="16">
       <c r="A230" t="s">
         <v>131</v>
       </c>
@@ -13004,7 +13238,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="16">
       <c r="A231" t="s">
         <v>131</v>
       </c>
@@ -13015,7 +13249,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="16">
       <c r="A232" t="s">
         <v>131</v>
       </c>
@@ -13026,7 +13260,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="16">
       <c r="A233" t="s">
         <v>131</v>
       </c>
@@ -13037,7 +13271,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="16">
       <c r="A234" t="s">
         <v>134</v>
       </c>
@@ -13048,7 +13282,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="16">
       <c r="A235" t="s">
         <v>134</v>
       </c>
@@ -13059,7 +13293,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="16">
       <c r="A236" t="s">
         <v>134</v>
       </c>
@@ -13070,7 +13304,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="16">
       <c r="A237" t="s">
         <v>134</v>
       </c>
@@ -13081,7 +13315,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="16">
       <c r="A238" t="s">
         <v>135</v>
       </c>
@@ -13092,7 +13326,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="16">
       <c r="A239" t="s">
         <v>135</v>
       </c>
@@ -13103,7 +13337,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="16">
       <c r="A240" t="s">
         <v>135</v>
       </c>
@@ -13114,7 +13348,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="16">
       <c r="A241" t="s">
         <v>135</v>
       </c>
@@ -13125,7 +13359,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="16">
       <c r="A242" t="s">
         <v>136</v>
       </c>
@@ -13136,7 +13370,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="16">
       <c r="A243" t="s">
         <v>136</v>
       </c>
@@ -13147,7 +13381,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="16">
       <c r="A244" t="s">
         <v>136</v>
       </c>
@@ -13158,7 +13392,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="16">
       <c r="A245" t="s">
         <v>136</v>
       </c>
@@ -13169,7 +13403,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="16">
       <c r="A246" t="s">
         <v>137</v>
       </c>
@@ -13180,7 +13414,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="16">
       <c r="A247" t="s">
         <v>137</v>
       </c>
@@ -13191,7 +13425,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="16">
       <c r="A248" t="s">
         <v>137</v>
       </c>
@@ -13202,7 +13436,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="16">
       <c r="A249" t="s">
         <v>137</v>
       </c>
@@ -13213,7 +13447,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="16">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -13224,7 +13458,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="16">
       <c r="A251" t="s">
         <v>138</v>
       </c>
@@ -13235,7 +13469,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="16">
       <c r="A252" t="s">
         <v>138</v>
       </c>
@@ -13246,7 +13480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="16">
       <c r="A253" t="s">
         <v>138</v>
       </c>
@@ -13257,7 +13491,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="16">
       <c r="A254" t="s">
         <v>139</v>
       </c>
@@ -13268,7 +13502,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="16">
       <c r="A255" t="s">
         <v>139</v>
       </c>
@@ -13279,7 +13513,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="16">
       <c r="A256" t="s">
         <v>139</v>
       </c>
@@ -13290,7 +13524,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="16">
       <c r="A257" t="s">
         <v>139</v>
       </c>
@@ -13301,7 +13535,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="16">
       <c r="A258" t="s">
         <v>140</v>
       </c>
@@ -13312,7 +13546,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" ht="16">
       <c r="A259" t="s">
         <v>140</v>
       </c>
@@ -13323,7 +13557,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="16">
       <c r="A260" t="s">
         <v>140</v>
       </c>
@@ -13334,7 +13568,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="16">
       <c r="A261" t="s">
         <v>140</v>
       </c>
@@ -13345,7 +13579,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="16">
       <c r="A262" t="s">
         <v>141</v>
       </c>
@@ -13356,7 +13590,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="16">
       <c r="A263" t="s">
         <v>141</v>
       </c>
@@ -13367,7 +13601,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="16">
       <c r="A264" t="s">
         <v>141</v>
       </c>
@@ -13378,7 +13612,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="16">
       <c r="A265" t="s">
         <v>141</v>
       </c>
@@ -13389,7 +13623,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="16">
       <c r="A266" t="s">
         <v>142</v>
       </c>
@@ -13400,7 +13634,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="16">
       <c r="A267" t="s">
         <v>142</v>
       </c>
@@ -13411,7 +13645,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" ht="16">
       <c r="A268" t="s">
         <v>142</v>
       </c>
@@ -13422,7 +13656,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="16">
       <c r="A269" t="s">
         <v>142</v>
       </c>
@@ -13433,7 +13667,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="16">
       <c r="A270" t="s">
         <v>150</v>
       </c>
@@ -13444,7 +13678,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" ht="16">
       <c r="A271" t="s">
         <v>150</v>
       </c>
@@ -13455,7 +13689,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="16">
       <c r="A272" t="s">
         <v>150</v>
       </c>
@@ -13466,7 +13700,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="16">
       <c r="A273" t="s">
         <v>150</v>
       </c>
@@ -13477,7 +13711,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="16">
       <c r="A274" t="s">
         <v>174</v>
       </c>
@@ -13488,7 +13722,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="16">
       <c r="A275" t="s">
         <v>174</v>
       </c>
@@ -13499,7 +13733,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="16">
       <c r="A276" t="s">
         <v>174</v>
       </c>
@@ -13510,7 +13744,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="16">
       <c r="A277" t="s">
         <v>174</v>
       </c>
@@ -13521,7 +13755,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="16">
       <c r="A278" t="s">
         <v>132</v>
       </c>
@@ -13532,7 +13766,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="16">
       <c r="A279" t="s">
         <v>132</v>
       </c>
@@ -13543,7 +13777,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="16">
       <c r="A280" t="s">
         <v>132</v>
       </c>
@@ -13554,7 +13788,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="16">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -13565,7 +13799,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="16">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -13576,7 +13810,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="16">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -13587,7 +13821,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="16">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -13598,7 +13832,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="16">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -13609,7 +13843,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="16">
       <c r="A286" t="s">
         <v>171</v>
       </c>
@@ -13620,7 +13854,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="16">
       <c r="A287" t="s">
         <v>171</v>
       </c>
@@ -13631,7 +13865,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="16">
       <c r="A288" t="s">
         <v>171</v>
       </c>
@@ -13642,7 +13876,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="16">
       <c r="A289" t="s">
         <v>171</v>
       </c>
@@ -13653,7 +13887,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="16">
       <c r="A290" t="s">
         <v>114</v>
       </c>
@@ -13664,7 +13898,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="16">
       <c r="A291" t="s">
         <v>114</v>
       </c>
@@ -13675,7 +13909,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="16">
       <c r="A292" t="s">
         <v>114</v>
       </c>
@@ -13686,7 +13920,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="16">
       <c r="A293" t="s">
         <v>114</v>
       </c>
@@ -13697,7 +13931,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="16">
       <c r="A294" t="s">
         <v>115</v>
       </c>
@@ -13708,7 +13942,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="16">
       <c r="A295" t="s">
         <v>115</v>
       </c>
@@ -13719,7 +13953,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="16">
       <c r="A296" t="s">
         <v>115</v>
       </c>
@@ -13730,7 +13964,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="16">
       <c r="A297" t="s">
         <v>115</v>
       </c>
@@ -13741,7 +13975,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="16">
       <c r="A298" t="s">
         <v>147</v>
       </c>
@@ -13752,7 +13986,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="16">
       <c r="A299" t="s">
         <v>147</v>
       </c>
@@ -13763,7 +13997,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="16">
       <c r="A300" t="s">
         <v>147</v>
       </c>
@@ -13774,7 +14008,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="16">
       <c r="A301" t="s">
         <v>147</v>
       </c>
@@ -13785,7 +14019,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="16">
       <c r="A302" t="s">
         <v>148</v>
       </c>
@@ -13796,7 +14030,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="16">
       <c r="A303" t="s">
         <v>148</v>
       </c>
@@ -13807,7 +14041,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="16">
       <c r="A304" t="s">
         <v>148</v>
       </c>
@@ -13818,7 +14052,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="16">
       <c r="A305" t="s">
         <v>148</v>
       </c>
@@ -13829,7 +14063,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="16">
       <c r="A306" t="s">
         <v>100</v>
       </c>
@@ -13840,7 +14074,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="16">
       <c r="A307" t="s">
         <v>100</v>
       </c>
@@ -13851,7 +14085,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="16">
       <c r="A308" t="s">
         <v>100</v>
       </c>
@@ -13862,7 +14096,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="16">
       <c r="A309" t="s">
         <v>100</v>
       </c>
@@ -13873,7 +14107,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="16">
       <c r="A310" t="s">
         <v>103</v>
       </c>
@@ -13884,7 +14118,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="16">
       <c r="A311" t="s">
         <v>103</v>
       </c>
@@ -13895,7 +14129,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="16">
       <c r="A312" t="s">
         <v>103</v>
       </c>
@@ -13906,7 +14140,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="16">
       <c r="A313" t="s">
         <v>103</v>
       </c>
@@ -13917,7 +14151,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="16">
       <c r="A314" t="s">
         <v>104</v>
       </c>
@@ -13928,7 +14162,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="16">
       <c r="A315" t="s">
         <v>104</v>
       </c>
@@ -13939,7 +14173,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="16">
       <c r="A316" t="s">
         <v>104</v>
       </c>
@@ -13950,7 +14184,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="16">
       <c r="A317" t="s">
         <v>104</v>
       </c>
@@ -13961,7 +14195,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="16">
       <c r="A318" t="s">
         <v>105</v>
       </c>
@@ -13972,7 +14206,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="16">
       <c r="A319" t="s">
         <v>105</v>
       </c>
@@ -13983,7 +14217,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="16">
       <c r="A320" t="s">
         <v>105</v>
       </c>
@@ -13994,7 +14228,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="16">
       <c r="A321" t="s">
         <v>105</v>
       </c>
@@ -14005,7 +14239,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="16">
       <c r="A322" t="s">
         <v>106</v>
       </c>
@@ -14016,7 +14250,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="16">
       <c r="A323" t="s">
         <v>106</v>
       </c>
@@ -14027,7 +14261,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="16">
       <c r="A324" t="s">
         <v>106</v>
       </c>
@@ -14038,7 +14272,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="16">
       <c r="A325" t="s">
         <v>106</v>
       </c>
@@ -14049,7 +14283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="16">
       <c r="A326" t="s">
         <v>107</v>
       </c>
@@ -14060,7 +14294,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="16">
       <c r="A327" t="s">
         <v>107</v>
       </c>
@@ -14071,7 +14305,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="16">
       <c r="A328" t="s">
         <v>107</v>
       </c>
@@ -14082,7 +14316,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="16">
       <c r="A329" t="s">
         <v>107</v>
       </c>
@@ -14093,7 +14327,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="16">
       <c r="A330" t="s">
         <v>108</v>
       </c>
@@ -14104,7 +14338,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="16">
       <c r="A331" t="s">
         <v>108</v>
       </c>
@@ -14115,7 +14349,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="16">
       <c r="A332" t="s">
         <v>108</v>
       </c>
@@ -14126,7 +14360,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="16">
       <c r="A333" t="s">
         <v>108</v>
       </c>
@@ -14137,7 +14371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="16">
       <c r="A334" t="s">
         <v>165</v>
       </c>
@@ -14148,7 +14382,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="16">
       <c r="A335" t="s">
         <v>165</v>
       </c>
@@ -14159,7 +14393,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="16">
       <c r="A336" t="s">
         <v>165</v>
       </c>
@@ -14170,7 +14404,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="16">
       <c r="A337" t="s">
         <v>165</v>
       </c>
@@ -14181,7 +14415,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="16">
       <c r="A338" t="s">
         <v>166</v>
       </c>
@@ -14192,7 +14426,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="16">
       <c r="A339" t="s">
         <v>166</v>
       </c>
@@ -14203,7 +14437,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="16">
       <c r="A340" t="s">
         <v>166</v>
       </c>
@@ -14214,7 +14448,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="16">
       <c r="A341" t="s">
         <v>166</v>
       </c>
@@ -14225,7 +14459,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" s="88"/>
       <c r="B342" s="88"/>
     </row>
@@ -14236,21 +14470,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="33.375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="36" customWidth="1"/>
     <col min="3" max="16384" width="11" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>49</v>
       </c>
@@ -14258,155 +14492,155 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A2" s="35" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="35" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="35" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="35" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="35" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="35" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="35" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="35" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="35" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="35" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="35" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="35" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="35" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A23" s="35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A24" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A25" s="35" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A26" s="35" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="35" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="35" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A29" s="35" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1">
       <c r="A30" s="35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="35" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1"/>
+    <row r="32" spans="1:1" s="35" customFormat="1" ht="22" customHeight="1"/>
+    <row r="33" s="35" customFormat="1" ht="22" customHeight="1"/>
+    <row r="34" s="35" customFormat="1" ht="22" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:A22">
     <sortCondition ref="A1"/>
@@ -14417,19 +14651,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>99</v>
       </c>

--- a/tests/models/potable_water_treatment_plant/pwtp_400ML_wnpg.xlsx
+++ b/tests/models/potable_water_treatment_plant/pwtp_400ML_wnpg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/tests/models/potable_water_treatment_plant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96BE140A-694E-A84E-ADD6-C63F63A57A53}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{39692BB8-6889-1848-B8CA-4627B2F3C932}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="14560" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="234">
   <si>
     <t>component_type</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2428,87 @@
     <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF9999"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF9999"/>
@@ -6782,13 +6865,13 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6797,20 +6880,20 @@
     <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
     <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.1640625" style="6" customWidth="1"/>
-    <col min="8" max="10" width="11.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="57.6640625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="44.6640625" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="7"/>
+    <col min="6" max="8" width="14.1640625" style="6" customWidth="1"/>
+    <col min="9" max="11" width="11.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="57.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="44.6640625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="89" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="1:18" s="89" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="90" t="s">
         <v>224</v>
       </c>
@@ -6830,40 +6913,43 @@
         <v>222</v>
       </c>
       <c r="G1" s="91" t="s">
+        <v>233</v>
+      </c>
+      <c r="H1" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="I1" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="J1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="K1" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="97" t="s">
+      <c r="L1" s="97" t="s">
         <v>227</v>
       </c>
-      <c r="L1" s="97" t="s">
+      <c r="M1" s="97" t="s">
         <v>228</v>
       </c>
-      <c r="M1" s="98" t="s">
+      <c r="N1" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="N1" s="94" t="s">
+      <c r="O1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="94" t="s">
+      <c r="P1" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="94" t="s">
+      <c r="Q1" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="90" t="s">
+      <c r="R1" s="90" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="2" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="95">
         <v>1</v>
       </c>
@@ -6883,41 +6969,44 @@
         <v>0.8</v>
       </c>
       <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.2</v>
       </c>
-      <c r="I2" s="41">
+      <c r="J2" s="41">
         <v>0.95</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M2" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="11">
+      <c r="O2" s="11">
         <v>0.2</v>
       </c>
-      <c r="O2" s="12">
-        <f t="shared" ref="O2:O41" si="0">P2/NORMINV(0.95,0,1)</f>
+      <c r="P2" s="12">
+        <f t="shared" ref="P2:P41" si="0">Q2/NORMINV(0.95,0,1)</f>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P2" s="13">
+      <c r="Q2" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="R2" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="3" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A3" s="95">
         <v>2</v>
       </c>
@@ -6937,41 +7026,44 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.7</v>
       </c>
-      <c r="I3" s="42">
+      <c r="J3" s="42">
         <v>0.75</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M3" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N3" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N3" s="11">
+      <c r="O3" s="11">
         <v>0.5</v>
       </c>
-      <c r="O3" s="12">
+      <c r="P3" s="12">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P3" s="13">
+      <c r="Q3" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="4" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A4" s="95">
         <v>3</v>
       </c>
@@ -6991,41 +7083,44 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G4" s="37">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H4" s="37">
         <v>0.85</v>
       </c>
-      <c r="I4" s="42">
+      <c r="I4" s="37">
+        <v>0.85</v>
+      </c>
+      <c r="J4" s="42">
         <v>0.3</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L4" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M4" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N4" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N4" s="11">
-        <v>1</v>
-      </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
+        <v>1</v>
+      </c>
+      <c r="P4" s="12">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P4" s="13">
+      <c r="Q4" s="13">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="5" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A5" s="95">
         <v>4</v>
       </c>
@@ -7045,41 +7140,44 @@
         <v>1.4</v>
       </c>
       <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
         <v>0.8</v>
       </c>
-      <c r="H5" s="38">
-        <v>1</v>
-      </c>
-      <c r="I5" s="42">
+      <c r="I5" s="38">
+        <v>1</v>
+      </c>
+      <c r="J5" s="42">
         <v>0</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L5" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M5" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N5" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N5" s="11">
+      <c r="O5" s="11">
         <v>4.3</v>
       </c>
-      <c r="O5" s="12">
+      <c r="P5" s="12">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P5" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="6" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="95">
         <v>5</v>
       </c>
@@ -7099,41 +7197,44 @@
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.4</v>
       </c>
-      <c r="H6" s="39">
+      <c r="I6" s="39">
         <v>0.2</v>
       </c>
-      <c r="I6" s="41">
+      <c r="J6" s="41">
         <v>0.95</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N6" s="20">
+      <c r="O6" s="20">
         <v>3</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P6" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="14" t="s">
+      <c r="Q6" s="21">
+        <v>1</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="7" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A7" s="95">
         <v>6</v>
       </c>
@@ -7153,41 +7254,44 @@
         <v>0.3</v>
       </c>
       <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.4</v>
       </c>
-      <c r="H7" s="39">
+      <c r="I7" s="39">
         <v>0.4</v>
       </c>
-      <c r="I7" s="42">
+      <c r="J7" s="42">
         <v>0.75</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L7" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M7" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N7" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N7" s="22">
+      <c r="O7" s="22">
         <v>20</v>
       </c>
-      <c r="O7" s="17">
+      <c r="P7" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="23">
         <v>2</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="R7" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="8" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A8" s="95">
         <v>7</v>
       </c>
@@ -7207,41 +7311,44 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="39">
+        <v>0</v>
+      </c>
+      <c r="H8" s="39">
         <v>0.4</v>
       </c>
-      <c r="H8" s="39">
+      <c r="I8" s="39">
         <v>0.75</v>
       </c>
-      <c r="I8" s="42">
+      <c r="J8" s="42">
         <v>0.3</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L8" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M8" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N8" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N8" s="22">
+      <c r="O8" s="22">
         <v>60</v>
       </c>
-      <c r="O8" s="17">
+      <c r="P8" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P8" s="23">
+      <c r="Q8" s="23">
         <v>4</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="9" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="95">
         <v>8</v>
       </c>
@@ -7261,42 +7368,45 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G9" s="39">
+        <v>0</v>
+      </c>
+      <c r="H9" s="39">
         <v>0.4</v>
       </c>
-      <c r="H9" s="39">
+      <c r="I9" s="39">
         <v>0.9</v>
       </c>
-      <c r="I9" s="42">
+      <c r="J9" s="42">
         <v>0</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="K9" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L9" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M9" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N9" s="24">
+      <c r="O9" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P9" s="25">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="P9" s="26">
+      <c r="Q9" s="26">
         <v>8</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="R9" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="27" customFormat="1" ht="14" customHeight="1">
+    <row r="10" spans="1:18" s="27" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="95">
         <v>9</v>
       </c>
@@ -7316,41 +7426,44 @@
         <v>0.36</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.2</v>
       </c>
-      <c r="I10" s="41">
+      <c r="J10" s="41">
         <v>0.95</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M10" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N10" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N10" s="11">
+      <c r="O10" s="11">
         <v>0.2</v>
       </c>
-      <c r="O10" s="12">
+      <c r="P10" s="12">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P10" s="13">
+      <c r="Q10" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="R10" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="11" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="95">
         <v>10</v>
       </c>
@@ -7370,41 +7483,44 @@
         <v>0.6</v>
       </c>
       <c r="G11" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0.5</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="42">
         <v>0.75</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="K11" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L11" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M11" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N11" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N11" s="11">
+      <c r="O11" s="11">
         <v>0.5</v>
       </c>
-      <c r="O11" s="12">
+      <c r="P11" s="12">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P11" s="13">
+      <c r="Q11" s="13">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="R11" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="12" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="95">
         <v>11</v>
       </c>
@@ -7424,41 +7540,44 @@
         <v>1.2</v>
       </c>
       <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>0.8</v>
       </c>
-      <c r="I12" s="42">
+      <c r="J12" s="42">
         <v>0.3</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="K12" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L12" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M12" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N12" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N12" s="11">
-        <v>1</v>
-      </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
+        <v>1</v>
+      </c>
+      <c r="P12" s="12">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P12" s="13">
+      <c r="Q12" s="13">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="R12" s="19" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="13" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="95">
         <v>12</v>
       </c>
@@ -7478,41 +7597,44 @@
         <v>1.5</v>
       </c>
       <c r="G13" s="38">
+        <v>0</v>
+      </c>
+      <c r="H13" s="38">
         <v>0.6</v>
       </c>
-      <c r="H13" s="38">
-        <v>1</v>
-      </c>
-      <c r="I13" s="42">
+      <c r="I13" s="38">
+        <v>1</v>
+      </c>
+      <c r="J13" s="42">
         <v>0</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="K13" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L13" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M13" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N13" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N13" s="11">
+      <c r="O13" s="11">
         <v>4.3</v>
       </c>
-      <c r="O13" s="12">
+      <c r="P13" s="12">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P13" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="14" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="95">
         <v>13</v>
       </c>
@@ -7532,41 +7654,44 @@
         <v>0.65</v>
       </c>
       <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.6</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.15</v>
       </c>
-      <c r="I14" s="41">
+      <c r="J14" s="41">
         <v>0.95</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L14" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N14" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N14" s="20">
-        <v>1</v>
-      </c>
-      <c r="O14" s="9">
+      <c r="O14" s="20">
+        <v>1</v>
+      </c>
+      <c r="P14" s="9">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P14" s="21">
+      <c r="Q14" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="R14" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="15" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="95">
         <v>14</v>
       </c>
@@ -7586,41 +7711,44 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.7</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>0.5</v>
       </c>
-      <c r="I15" s="42">
+      <c r="J15" s="42">
         <v>0.75</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="K15" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L15" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M15" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N15" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N15" s="22">
+      <c r="O15" s="22">
         <v>3</v>
       </c>
-      <c r="O15" s="17">
+      <c r="P15" s="17">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P15" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="19" t="s">
+      <c r="Q15" s="23">
+        <v>1</v>
+      </c>
+      <c r="R15" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="16" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="95">
         <v>15</v>
       </c>
@@ -7640,41 +7768,44 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G16" s="37">
+        <v>0</v>
+      </c>
+      <c r="H16" s="37">
         <v>0.6</v>
       </c>
-      <c r="H16" s="37">
+      <c r="I16" s="37">
         <v>0.8</v>
       </c>
-      <c r="I16" s="42">
+      <c r="J16" s="42">
         <v>0.3</v>
       </c>
-      <c r="J16" s="18" t="s">
+      <c r="K16" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L16" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M16" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N16" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="22">
+      <c r="O16" s="22">
         <v>15</v>
       </c>
-      <c r="O16" s="17">
+      <c r="P16" s="17">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P16" s="23">
+      <c r="Q16" s="23">
         <v>3</v>
       </c>
-      <c r="Q16" s="19" t="s">
+      <c r="R16" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="17" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="95">
         <v>16</v>
       </c>
@@ -7694,41 +7825,44 @@
         <v>1.3</v>
       </c>
       <c r="G17" s="38">
+        <v>0</v>
+      </c>
+      <c r="H17" s="38">
         <v>0.6</v>
       </c>
-      <c r="H17" s="38">
+      <c r="I17" s="38">
         <v>0.97</v>
       </c>
-      <c r="I17" s="42">
+      <c r="J17" s="42">
         <v>0</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="K17" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M17" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N17" s="22">
+      <c r="O17" s="22">
         <v>30</v>
       </c>
-      <c r="O17" s="17">
+      <c r="P17" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="23">
         <v>4</v>
       </c>
-      <c r="Q17" s="19" t="s">
+      <c r="R17" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="18" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="95">
         <v>17</v>
       </c>
@@ -7748,41 +7882,44 @@
         <v>0.15</v>
       </c>
       <c r="G18" s="85">
+        <v>0</v>
+      </c>
+      <c r="H18" s="85">
         <v>0.3</v>
       </c>
-      <c r="H18" s="39">
+      <c r="I18" s="39">
         <v>0.2</v>
       </c>
-      <c r="I18" s="41">
+      <c r="J18" s="41">
         <v>0.95</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L18" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N18" s="20">
+      <c r="O18" s="20">
         <v>5</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <f t="shared" si="0"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="P18" s="21">
+      <c r="Q18" s="21">
         <v>0.3</v>
       </c>
-      <c r="Q18" s="14" t="s">
+      <c r="R18" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="19" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="95">
         <v>18</v>
       </c>
@@ -7802,41 +7939,44 @@
         <v>0.3</v>
       </c>
       <c r="G19" s="86">
+        <v>0</v>
+      </c>
+      <c r="H19" s="86">
         <v>0.35</v>
       </c>
-      <c r="H19" s="39">
+      <c r="I19" s="39">
         <v>0.5</v>
       </c>
-      <c r="I19" s="42">
+      <c r="J19" s="42">
         <v>0.75</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="K19" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M19" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N19" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N19" s="22">
+      <c r="O19" s="22">
         <v>10</v>
       </c>
-      <c r="O19" s="17">
+      <c r="P19" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P19" s="23">
+      <c r="Q19" s="23">
         <v>2</v>
       </c>
-      <c r="Q19" s="19" t="s">
+      <c r="R19" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="20" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="95">
         <v>19</v>
       </c>
@@ -7856,41 +7996,44 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G20" s="86">
+        <v>0</v>
+      </c>
+      <c r="H20" s="86">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H20" s="39">
+      <c r="I20" s="39">
         <v>0.8</v>
       </c>
-      <c r="I20" s="42">
+      <c r="J20" s="42">
         <v>0.3</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="K20" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L20" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M20" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N20" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N20" s="22">
+      <c r="O20" s="22">
         <v>21</v>
       </c>
-      <c r="O20" s="17">
+      <c r="P20" s="17">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="23">
         <v>3</v>
       </c>
-      <c r="Q20" s="19" t="s">
+      <c r="R20" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="21" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="95">
         <v>20</v>
       </c>
@@ -7910,42 +8053,45 @@
         <v>2.1</v>
       </c>
       <c r="G21" s="87">
+        <v>0</v>
+      </c>
+      <c r="H21" s="87">
         <v>0.7</v>
       </c>
-      <c r="H21" s="39">
+      <c r="I21" s="39">
         <v>0.95</v>
       </c>
-      <c r="I21" s="42">
+      <c r="J21" s="42">
         <v>0</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="K21" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L21" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M21" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N21" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N21" s="22">
+      <c r="O21" s="22">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="O21" s="17">
+      <c r="P21" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P21" s="23">
+      <c r="Q21" s="23">
         <v>4</v>
       </c>
-      <c r="Q21" s="19" t="s">
+      <c r="R21" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="22" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="95">
         <v>21</v>
       </c>
@@ -7965,41 +8111,44 @@
         <v>0.4</v>
       </c>
       <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.6</v>
       </c>
-      <c r="H22" s="40">
+      <c r="I22" s="40">
         <v>0.2</v>
       </c>
-      <c r="I22" s="41">
+      <c r="J22" s="41">
         <v>0.95</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="K22" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N22" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N22" s="20">
+      <c r="O22" s="20">
         <v>5</v>
       </c>
-      <c r="O22" s="9">
+      <c r="P22" s="9">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P22" s="21">
+      <c r="Q22" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q22" s="14" t="s">
+      <c r="R22" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="23" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="95">
         <v>22</v>
       </c>
@@ -8019,41 +8168,44 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G23" s="37">
+        <v>0</v>
+      </c>
+      <c r="H23" s="37">
         <v>0.6</v>
       </c>
-      <c r="H23" s="37">
+      <c r="I23" s="37">
         <v>0.7</v>
       </c>
-      <c r="I23" s="42">
+      <c r="J23" s="42">
         <v>0.75</v>
       </c>
-      <c r="J23" s="18" t="s">
+      <c r="K23" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L23" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M23" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N23" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N23" s="22">
+      <c r="O23" s="22">
         <v>17</v>
       </c>
-      <c r="O23" s="17">
+      <c r="P23" s="17">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P23" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="19" t="s">
+      <c r="Q23" s="23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="24" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="95">
         <v>23</v>
       </c>
@@ -8073,41 +8225,44 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="37">
+        <v>0</v>
+      </c>
+      <c r="H24" s="37">
         <v>0.6</v>
       </c>
-      <c r="H24" s="37">
+      <c r="I24" s="37">
         <v>0.8</v>
       </c>
-      <c r="I24" s="42">
+      <c r="J24" s="42">
         <v>0.3</v>
       </c>
-      <c r="J24" s="18" t="s">
+      <c r="K24" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L24" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M24" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N24" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N24" s="22">
+      <c r="O24" s="22">
         <v>37</v>
       </c>
-      <c r="O24" s="17">
+      <c r="P24" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P24" s="23">
+      <c r="Q24" s="23">
         <v>2</v>
       </c>
-      <c r="Q24" s="19" t="s">
+      <c r="R24" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="25" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="95">
         <v>24</v>
       </c>
@@ -8127,42 +8282,45 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G25" s="38">
+        <v>0</v>
+      </c>
+      <c r="H25" s="38">
         <v>0.6</v>
       </c>
-      <c r="H25" s="38">
+      <c r="I25" s="38">
         <v>0.95</v>
       </c>
-      <c r="I25" s="42">
+      <c r="J25" s="42">
         <v>0</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="K25" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K25" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L25" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M25" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N25" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N25" s="22">
+      <c r="O25" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O25" s="17">
+      <c r="P25" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P25" s="23">
+      <c r="Q25" s="23">
         <v>4</v>
       </c>
-      <c r="Q25" s="19" t="s">
+      <c r="R25" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="26" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="95">
         <v>25</v>
       </c>
@@ -8182,41 +8340,44 @@
         <v>0.25</v>
       </c>
       <c r="G26" s="40">
+        <v>0</v>
+      </c>
+      <c r="H26" s="40">
         <v>0.6</v>
       </c>
-      <c r="H26" s="40">
+      <c r="I26" s="40">
         <v>0.2</v>
       </c>
-      <c r="I26" s="41">
+      <c r="J26" s="41">
         <v>0.95</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L26" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M26" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N26" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N26" s="20">
-        <v>1</v>
-      </c>
-      <c r="O26" s="9">
+      <c r="O26" s="20">
+        <v>1</v>
+      </c>
+      <c r="P26" s="9">
         <f t="shared" si="0"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="P26" s="21">
+      <c r="Q26" s="21">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="14" t="s">
+      <c r="R26" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="27" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A27" s="95">
         <v>26</v>
       </c>
@@ -8236,41 +8397,44 @@
         <v>0.36</v>
       </c>
       <c r="G27" s="37">
+        <v>0</v>
+      </c>
+      <c r="H27" s="37">
         <v>0.6</v>
       </c>
-      <c r="H27" s="37">
+      <c r="I27" s="37">
         <v>0.5</v>
       </c>
-      <c r="I27" s="42">
+      <c r="J27" s="42">
         <v>0.75</v>
       </c>
-      <c r="J27" s="18" t="s">
+      <c r="K27" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L27" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M27" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N27" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N27" s="22">
+      <c r="O27" s="22">
         <v>4</v>
       </c>
-      <c r="O27" s="17">
+      <c r="P27" s="17">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P27" s="23">
+      <c r="Q27" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="19" t="s">
+      <c r="R27" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="28" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="95">
         <v>27</v>
       </c>
@@ -8290,41 +8454,44 @@
         <v>0.53</v>
       </c>
       <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
         <v>0.6</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>0.65</v>
       </c>
-      <c r="I28" s="42">
+      <c r="J28" s="42">
         <v>0.3</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="K28" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L28" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M28" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N28" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N28" s="22">
+      <c r="O28" s="22">
         <v>8</v>
       </c>
-      <c r="O28" s="17">
+      <c r="P28" s="17">
         <f t="shared" si="0"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="P28" s="23">
+      <c r="Q28" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q28" s="19" t="s">
+      <c r="R28" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="29" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="95">
         <v>28</v>
       </c>
@@ -8344,41 +8511,44 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>0.6</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>0.9</v>
       </c>
-      <c r="I29" s="42">
+      <c r="J29" s="42">
         <v>0</v>
       </c>
-      <c r="J29" s="18" t="s">
+      <c r="K29" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K29" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L29" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M29" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N29" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N29" s="22">
+      <c r="O29" s="22">
         <v>12</v>
       </c>
-      <c r="O29" s="17">
+      <c r="P29" s="17">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P29" s="23">
+      <c r="Q29" s="23">
         <v>3</v>
       </c>
-      <c r="Q29" s="19" t="s">
+      <c r="R29" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="30" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A30" s="95">
         <v>29</v>
       </c>
@@ -8398,41 +8568,44 @@
         <v>0.25</v>
       </c>
       <c r="G30" s="40">
+        <v>0</v>
+      </c>
+      <c r="H30" s="40">
         <v>0.6</v>
       </c>
-      <c r="H30" s="40">
+      <c r="I30" s="40">
         <v>0.2</v>
       </c>
-      <c r="I30" s="41">
+      <c r="J30" s="41">
         <v>0.95</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L30" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M30" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N30" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N30" s="20">
-        <v>1</v>
-      </c>
-      <c r="O30" s="9">
-        <f t="shared" ref="O30:O37" si="1">P30/NORMINV(0.95,0,1)</f>
+      <c r="O30" s="20">
+        <v>1</v>
+      </c>
+      <c r="P30" s="9">
+        <f t="shared" ref="P30:P37" si="1">Q30/NORMINV(0.95,0,1)</f>
         <v>0.12159136638235388</v>
       </c>
-      <c r="P30" s="21">
+      <c r="Q30" s="21">
         <v>0.2</v>
       </c>
-      <c r="Q30" s="14" t="s">
+      <c r="R30" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="31" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A31" s="95">
         <v>30</v>
       </c>
@@ -8452,41 +8625,44 @@
         <v>0.36</v>
       </c>
       <c r="G31" s="37">
+        <v>0</v>
+      </c>
+      <c r="H31" s="37">
         <v>0.6</v>
       </c>
-      <c r="H31" s="37">
+      <c r="I31" s="37">
         <v>0.5</v>
       </c>
-      <c r="I31" s="42">
+      <c r="J31" s="42">
         <v>0.75</v>
       </c>
-      <c r="J31" s="18" t="s">
+      <c r="K31" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K31" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L31" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M31" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N31" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N31" s="22">
+      <c r="O31" s="22">
         <v>4</v>
       </c>
-      <c r="O31" s="17">
+      <c r="P31" s="17">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P31" s="23">
+      <c r="Q31" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="19" t="s">
+      <c r="R31" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="32" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A32" s="95">
         <v>31</v>
       </c>
@@ -8506,41 +8682,44 @@
         <v>0.53</v>
       </c>
       <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <v>0.6</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>0.65</v>
       </c>
-      <c r="I32" s="42">
+      <c r="J32" s="42">
         <v>0.3</v>
       </c>
-      <c r="J32" s="18" t="s">
+      <c r="K32" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L32" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M32" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N32" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N32" s="22">
+      <c r="O32" s="22">
         <v>8</v>
       </c>
-      <c r="O32" s="17">
+      <c r="P32" s="17">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="P32" s="23">
+      <c r="Q32" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q32" s="19" t="s">
+      <c r="R32" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="33" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="95">
         <v>32</v>
       </c>
@@ -8560,41 +8739,44 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>0.6</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>0.9</v>
       </c>
-      <c r="I33" s="42">
+      <c r="J33" s="42">
         <v>0</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="K33" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K33" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L33" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M33" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N33" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N33" s="22">
+      <c r="O33" s="22">
         <v>12</v>
       </c>
-      <c r="O33" s="17">
+      <c r="P33" s="17">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P33" s="23">
+      <c r="Q33" s="23">
         <v>3</v>
       </c>
-      <c r="Q33" s="19" t="s">
+      <c r="R33" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="34" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="95">
         <v>33</v>
       </c>
@@ -8614,41 +8796,44 @@
         <v>0.25</v>
       </c>
       <c r="G34" s="40">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40">
         <v>0.6</v>
       </c>
-      <c r="H34" s="40">
+      <c r="I34" s="40">
         <v>0.2</v>
       </c>
-      <c r="I34" s="41">
+      <c r="J34" s="41">
         <v>0.95</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="K34" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L34" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N34" s="20">
-        <v>1</v>
-      </c>
-      <c r="O34" s="9">
+      <c r="O34" s="20">
+        <v>1</v>
+      </c>
+      <c r="P34" s="9">
         <f t="shared" si="1"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="P34" s="21">
+      <c r="Q34" s="21">
         <v>0.2</v>
       </c>
-      <c r="Q34" s="14" t="s">
+      <c r="R34" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="35" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A35" s="95">
         <v>34</v>
       </c>
@@ -8668,41 +8853,44 @@
         <v>0.36</v>
       </c>
       <c r="G35" s="37">
+        <v>0</v>
+      </c>
+      <c r="H35" s="37">
         <v>0.6</v>
       </c>
-      <c r="H35" s="37">
+      <c r="I35" s="37">
         <v>0.5</v>
       </c>
-      <c r="I35" s="42">
+      <c r="J35" s="42">
         <v>0.75</v>
       </c>
-      <c r="J35" s="18" t="s">
+      <c r="K35" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L35" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M35" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N35" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N35" s="22">
+      <c r="O35" s="22">
         <v>4</v>
       </c>
-      <c r="O35" s="17">
+      <c r="P35" s="17">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P35" s="23">
+      <c r="Q35" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q35" s="19" t="s">
+      <c r="R35" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="36" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A36" s="95">
         <v>35</v>
       </c>
@@ -8722,41 +8910,44 @@
         <v>0.53</v>
       </c>
       <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <v>0.6</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>0.65</v>
       </c>
-      <c r="I36" s="42">
+      <c r="J36" s="42">
         <v>0.3</v>
       </c>
-      <c r="J36" s="18" t="s">
+      <c r="K36" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L36" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M36" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N36" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N36" s="22">
+      <c r="O36" s="22">
         <v>8</v>
       </c>
-      <c r="O36" s="17">
+      <c r="P36" s="17">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="P36" s="23">
+      <c r="Q36" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q36" s="19" t="s">
+      <c r="R36" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="37" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="95">
         <v>36</v>
       </c>
@@ -8776,41 +8967,44 @@
         <v>1</v>
       </c>
       <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>0.6</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>0.9</v>
       </c>
-      <c r="I37" s="42">
+      <c r="J37" s="42">
         <v>0</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="K37" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K37" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L37" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M37" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N37" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N37" s="22">
+      <c r="O37" s="22">
         <v>12</v>
       </c>
-      <c r="O37" s="17">
+      <c r="P37" s="17">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P37" s="23">
+      <c r="Q37" s="23">
         <v>3</v>
       </c>
-      <c r="Q37" s="19" t="s">
+      <c r="R37" s="19" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="38" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="95">
         <v>37</v>
       </c>
@@ -8830,41 +9024,44 @@
         <v>0.4</v>
       </c>
       <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
         <v>0.6</v>
       </c>
-      <c r="H38" s="40">
+      <c r="I38" s="40">
         <v>0.2</v>
       </c>
-      <c r="I38" s="41">
+      <c r="J38" s="41">
         <v>0.95</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="K38" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L38" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M38" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N38" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N38" s="20">
+      <c r="O38" s="20">
         <v>3</v>
       </c>
-      <c r="O38" s="9">
+      <c r="P38" s="9">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P38" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="14" t="s">
+      <c r="Q38" s="21">
+        <v>1</v>
+      </c>
+      <c r="R38" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="39" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="95">
         <v>38</v>
       </c>
@@ -8884,41 +9081,44 @@
         <v>0.67</v>
       </c>
       <c r="G39" s="37">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H39" s="37">
         <v>0.7</v>
       </c>
-      <c r="I39" s="42">
+      <c r="I39" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="J39" s="42">
         <v>0.75</v>
       </c>
-      <c r="J39" s="18" t="s">
+      <c r="K39" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K39" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L39" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M39" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N39" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N39" s="22">
+      <c r="O39" s="22">
         <v>20</v>
       </c>
-      <c r="O39" s="17">
+      <c r="P39" s="17">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P39" s="23">
+      <c r="Q39" s="23">
         <v>2</v>
       </c>
-      <c r="Q39" s="19" t="s">
+      <c r="R39" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="40" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="95">
         <v>39</v>
       </c>
@@ -8938,41 +9138,44 @@
         <v>0.85</v>
       </c>
       <c r="G40" s="37">
+        <v>0</v>
+      </c>
+      <c r="H40" s="37">
         <v>0.7</v>
       </c>
-      <c r="H40" s="37">
+      <c r="I40" s="37">
         <v>0.85</v>
       </c>
-      <c r="I40" s="42">
+      <c r="J40" s="42">
         <v>0.3</v>
       </c>
-      <c r="J40" s="18" t="s">
+      <c r="K40" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K40" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L40" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M40" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N40" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N40" s="22">
+      <c r="O40" s="22">
         <v>60</v>
       </c>
-      <c r="O40" s="17">
+      <c r="P40" s="17">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P40" s="23">
+      <c r="Q40" s="23">
         <v>4</v>
       </c>
-      <c r="Q40" s="19" t="s">
+      <c r="R40" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="41" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="95">
         <v>40</v>
       </c>
@@ -8992,42 +9195,45 @@
         <v>1</v>
       </c>
       <c r="G41" s="38">
+        <v>0</v>
+      </c>
+      <c r="H41" s="38">
         <v>0.7</v>
       </c>
-      <c r="H41" s="38">
+      <c r="I41" s="38">
         <v>0.99</v>
       </c>
-      <c r="I41" s="42">
+      <c r="J41" s="42">
         <v>0</v>
       </c>
-      <c r="J41" s="18" t="s">
+      <c r="K41" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L41" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M41" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N41" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N41" s="22">
+      <c r="O41" s="22">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="O41" s="17">
+      <c r="P41" s="17">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="P41" s="23">
+      <c r="Q41" s="23">
         <v>8</v>
       </c>
-      <c r="Q41" s="19" t="s">
+      <c r="R41" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="42" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="95">
         <v>41</v>
       </c>
@@ -9047,41 +9253,44 @@
         <v>0.4</v>
       </c>
       <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.7</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>0.2</v>
       </c>
-      <c r="I42" s="41">
+      <c r="J42" s="41">
         <v>0.95</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="K42" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L42" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M42" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N42" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N42" s="20">
+      <c r="O42" s="20">
         <v>5</v>
       </c>
-      <c r="O42" s="9">
-        <f t="shared" ref="O42:O61" si="2">P42/NORMINV(0.95,0,1)</f>
+      <c r="P42" s="9">
+        <f t="shared" ref="P42:P61" si="2">Q42/NORMINV(0.95,0,1)</f>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P42" s="21">
+      <c r="Q42" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q42" s="14" t="s">
+      <c r="R42" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="43" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="95">
         <v>42</v>
       </c>
@@ -9101,41 +9310,44 @@
         <v>0.65</v>
       </c>
       <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
         <v>0.7</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>0.75</v>
       </c>
-      <c r="I43" s="42">
+      <c r="J43" s="42">
         <v>0.75</v>
       </c>
-      <c r="J43" s="18" t="s">
+      <c r="K43" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K43" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L43" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M43" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N43" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N43" s="22">
+      <c r="O43" s="22">
         <v>17</v>
       </c>
-      <c r="O43" s="17">
+      <c r="P43" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P43" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="19" t="s">
+      <c r="Q43" s="23">
+        <v>1</v>
+      </c>
+      <c r="R43" s="19" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="44" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="95">
         <v>43</v>
       </c>
@@ -9155,41 +9367,44 @@
         <v>0.95</v>
       </c>
       <c r="G44" s="37">
+        <v>0</v>
+      </c>
+      <c r="H44" s="37">
         <v>0.7</v>
       </c>
-      <c r="H44" s="37">
+      <c r="I44" s="37">
         <v>0.85</v>
       </c>
-      <c r="I44" s="42">
+      <c r="J44" s="42">
         <v>0.3</v>
       </c>
-      <c r="J44" s="18" t="s">
+      <c r="K44" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K44" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L44" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M44" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N44" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N44" s="22">
+      <c r="O44" s="22">
         <v>37</v>
       </c>
-      <c r="O44" s="17">
+      <c r="P44" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P44" s="23">
+      <c r="Q44" s="23">
         <v>2</v>
       </c>
-      <c r="Q44" s="19" t="s">
+      <c r="R44" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="45" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="95">
         <v>44</v>
       </c>
@@ -9209,42 +9424,45 @@
         <v>1.18</v>
       </c>
       <c r="G45" s="38">
+        <v>0</v>
+      </c>
+      <c r="H45" s="38">
         <v>0.7</v>
       </c>
-      <c r="H45" s="38">
+      <c r="I45" s="38">
         <v>0.9</v>
       </c>
-      <c r="I45" s="42">
+      <c r="J45" s="42">
         <v>0</v>
       </c>
-      <c r="J45" s="18" t="s">
+      <c r="K45" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K45" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L45" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M45" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N45" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N45" s="22">
+      <c r="O45" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O45" s="17">
+      <c r="P45" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P45" s="23">
+      <c r="Q45" s="23">
         <v>4</v>
       </c>
-      <c r="Q45" s="19" t="s">
+      <c r="R45" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="46" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="95">
         <v>45</v>
       </c>
@@ -9264,41 +9482,44 @@
         <v>0.25</v>
       </c>
       <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H46" s="40">
+      <c r="I46" s="40">
         <v>0.2</v>
       </c>
-      <c r="I46" s="41">
+      <c r="J46" s="41">
         <v>0.95</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="K46" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M46" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N46" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N46" s="20">
+      <c r="O46" s="20">
         <v>5</v>
       </c>
-      <c r="O46" s="9">
+      <c r="P46" s="9">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P46" s="21">
+      <c r="Q46" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q46" s="14" t="s">
+      <c r="R46" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="47" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="95">
         <v>46</v>
       </c>
@@ -9318,41 +9539,44 @@
         <v>0.52</v>
       </c>
       <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
         <v>0.7</v>
       </c>
-      <c r="H47" s="37">
+      <c r="I47" s="37">
         <v>0.7</v>
       </c>
-      <c r="I47" s="42">
+      <c r="J47" s="42">
         <v>0.75</v>
       </c>
-      <c r="J47" s="18" t="s">
+      <c r="K47" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K47" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L47" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M47" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N47" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N47" s="22">
+      <c r="O47" s="22">
         <v>17</v>
       </c>
-      <c r="O47" s="17">
+      <c r="P47" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P47" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="19" t="s">
+      <c r="Q47" s="23">
+        <v>1</v>
+      </c>
+      <c r="R47" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="48" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A48" s="95">
         <v>47</v>
       </c>
@@ -9372,41 +9596,44 @@
         <v>0.95</v>
       </c>
       <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
         <v>0.6</v>
       </c>
-      <c r="H48" s="37">
+      <c r="I48" s="37">
         <v>0.8</v>
       </c>
-      <c r="I48" s="42">
+      <c r="J48" s="42">
         <v>0.3</v>
       </c>
-      <c r="J48" s="18" t="s">
+      <c r="K48" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K48" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L48" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M48" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N48" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N48" s="22">
+      <c r="O48" s="22">
         <v>37</v>
       </c>
-      <c r="O48" s="17">
+      <c r="P48" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P48" s="23">
+      <c r="Q48" s="23">
         <v>2</v>
       </c>
-      <c r="Q48" s="19" t="s">
+      <c r="R48" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="49" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A49" s="95">
         <v>48</v>
       </c>
@@ -9426,42 +9653,45 @@
         <v>1.64</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>0.7</v>
       </c>
-      <c r="H49" s="38">
+      <c r="I49" s="38">
         <v>0.99</v>
       </c>
-      <c r="I49" s="42">
+      <c r="J49" s="42">
         <v>0</v>
       </c>
-      <c r="J49" s="18" t="s">
+      <c r="K49" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K49" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M49" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N49" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N49" s="22">
+      <c r="O49" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O49" s="17">
+      <c r="P49" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P49" s="23">
+      <c r="Q49" s="23">
         <v>4</v>
       </c>
-      <c r="Q49" s="19" t="s">
+      <c r="R49" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="50" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A50" s="95">
         <v>49</v>
       </c>
@@ -9481,41 +9711,44 @@
         <v>0.53</v>
       </c>
       <c r="G50" s="40">
+        <v>0</v>
+      </c>
+      <c r="H50" s="40">
         <v>0.63</v>
       </c>
-      <c r="H50" s="40">
+      <c r="I50" s="40">
         <v>0.2</v>
       </c>
-      <c r="I50" s="41">
+      <c r="J50" s="41">
         <v>0.95</v>
       </c>
-      <c r="J50" s="10" t="s">
+      <c r="K50" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M50" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N50" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N50" s="20">
+      <c r="O50" s="20">
         <v>5</v>
       </c>
-      <c r="O50" s="9">
+      <c r="P50" s="9">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P50" s="21">
+      <c r="Q50" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q50" s="14" t="s">
+      <c r="R50" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="51" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A51" s="95">
         <v>50</v>
       </c>
@@ -9535,41 +9768,44 @@
         <v>0.92</v>
       </c>
       <c r="G51" s="37">
+        <v>0</v>
+      </c>
+      <c r="H51" s="37">
         <v>0.65</v>
       </c>
-      <c r="H51" s="37">
+      <c r="I51" s="37">
         <v>0.45</v>
       </c>
-      <c r="I51" s="42">
+      <c r="J51" s="42">
         <v>0.75</v>
       </c>
-      <c r="J51" s="18" t="s">
+      <c r="K51" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K51" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L51" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M51" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N51" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N51" s="22">
+      <c r="O51" s="22">
         <v>17</v>
       </c>
-      <c r="O51" s="17">
+      <c r="P51" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P51" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="19" t="s">
+      <c r="Q51" s="23">
+        <v>1</v>
+      </c>
+      <c r="R51" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="52" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A52" s="95">
         <v>51</v>
       </c>
@@ -9589,41 +9825,44 @@
         <v>1.6</v>
       </c>
       <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <v>0.6</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>0.75</v>
       </c>
-      <c r="I52" s="42">
+      <c r="J52" s="42">
         <v>0.3</v>
       </c>
-      <c r="J52" s="18" t="s">
+      <c r="K52" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L52" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M52" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N52" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N52" s="22">
+      <c r="O52" s="22">
         <v>37</v>
       </c>
-      <c r="O52" s="17">
+      <c r="P52" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P52" s="23">
+      <c r="Q52" s="23">
         <v>2</v>
       </c>
-      <c r="Q52" s="19" t="s">
+      <c r="R52" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="53" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A53" s="95">
         <v>52</v>
       </c>
@@ -9643,42 +9882,45 @@
         <v>1.8</v>
       </c>
       <c r="G53" s="38">
+        <v>0</v>
+      </c>
+      <c r="H53" s="38">
         <v>0.6</v>
       </c>
-      <c r="H53" s="38">
+      <c r="I53" s="38">
         <v>0.95</v>
       </c>
-      <c r="I53" s="42">
+      <c r="J53" s="42">
         <v>0</v>
       </c>
-      <c r="J53" s="18" t="s">
+      <c r="K53" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K53" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L53" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M53" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N53" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N53" s="22">
+      <c r="O53" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O53" s="17">
+      <c r="P53" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P53" s="23">
+      <c r="Q53" s="23">
         <v>4</v>
       </c>
-      <c r="Q53" s="19" t="s">
+      <c r="R53" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="54" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A54" s="95">
         <v>53</v>
       </c>
@@ -9698,41 +9940,44 @@
         <v>0.6</v>
       </c>
       <c r="G54" s="40">
+        <v>0</v>
+      </c>
+      <c r="H54" s="40">
         <v>0.6</v>
       </c>
-      <c r="H54" s="40">
+      <c r="I54" s="40">
         <v>0.2</v>
       </c>
-      <c r="I54" s="41">
+      <c r="J54" s="41">
         <v>0.95</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="K54" s="10" t="s">
         <v>30</v>
-      </c>
-      <c r="K54" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="L54" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M54" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="N54" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="N54" s="20">
+      <c r="O54" s="20">
         <v>5</v>
       </c>
-      <c r="O54" s="9">
+      <c r="P54" s="9">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P54" s="21">
+      <c r="Q54" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q54" s="14" t="s">
+      <c r="R54" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="55" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A55" s="95">
         <v>54</v>
       </c>
@@ -9752,41 +9997,44 @@
         <v>0.85</v>
       </c>
       <c r="G55" s="37">
+        <v>0</v>
+      </c>
+      <c r="H55" s="37">
         <v>0.6</v>
       </c>
-      <c r="H55" s="37">
+      <c r="I55" s="37">
         <v>0.45</v>
       </c>
-      <c r="I55" s="42">
+      <c r="J55" s="42">
         <v>0.75</v>
       </c>
-      <c r="J55" s="18" t="s">
+      <c r="K55" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L55" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M55" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N55" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N55" s="22">
+      <c r="O55" s="22">
         <v>17</v>
       </c>
-      <c r="O55" s="17">
+      <c r="P55" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P55" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="19" t="s">
+      <c r="Q55" s="23">
+        <v>1</v>
+      </c>
+      <c r="R55" s="19" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="56" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A56" s="95">
         <v>55</v>
       </c>
@@ -9806,41 +10054,44 @@
         <v>1.25</v>
       </c>
       <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <v>0.6</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>0.75</v>
       </c>
-      <c r="I56" s="42">
+      <c r="J56" s="42">
         <v>0.3</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="K56" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K56" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L56" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M56" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N56" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N56" s="22">
+      <c r="O56" s="22">
         <v>37</v>
       </c>
-      <c r="O56" s="17">
+      <c r="P56" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P56" s="23">
+      <c r="Q56" s="23">
         <v>2</v>
       </c>
-      <c r="Q56" s="19" t="s">
+      <c r="R56" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="57" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A57" s="95">
         <v>56</v>
       </c>
@@ -9860,42 +10111,45 @@
         <v>1.5</v>
       </c>
       <c r="G57" s="38">
+        <v>0</v>
+      </c>
+      <c r="H57" s="38">
         <v>0.6</v>
       </c>
-      <c r="H57" s="38">
+      <c r="I57" s="38">
         <v>0.95</v>
       </c>
-      <c r="I57" s="42">
+      <c r="J57" s="42">
         <v>0</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="K57" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K57" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>229</v>
       </c>
       <c r="M57" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N57" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="N57" s="24">
+      <c r="O57" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O57" s="25">
+      <c r="P57" s="25">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P57" s="26">
+      <c r="Q57" s="26">
         <v>4</v>
       </c>
-      <c r="Q57" s="30" t="s">
+      <c r="R57" s="30" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="58" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A58" s="95">
         <v>57</v>
       </c>
@@ -9915,41 +10169,44 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
         <v>0.73</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>0.1</v>
       </c>
-      <c r="I58" s="41">
+      <c r="J58" s="41">
         <v>0.95</v>
       </c>
-      <c r="J58" s="18" t="s">
+      <c r="K58" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K58" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L58" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M58" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N58" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N58" s="22">
+      <c r="O58" s="22">
         <v>5</v>
       </c>
-      <c r="O58" s="17">
+      <c r="P58" s="17">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P58" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="19" t="s">
+      <c r="Q58" s="21">
+        <v>1</v>
+      </c>
+      <c r="R58" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="59" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A59" s="95">
         <v>58</v>
       </c>
@@ -9969,41 +10226,44 @@
         <v>0.72</v>
       </c>
       <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
         <v>0.73</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>0.4</v>
       </c>
-      <c r="I59" s="42">
+      <c r="J59" s="42">
         <v>0.75</v>
       </c>
-      <c r="J59" s="18" t="s">
+      <c r="K59" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K59" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L59" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M59" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N59" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N59" s="22">
+      <c r="O59" s="22">
         <v>20</v>
       </c>
-      <c r="O59" s="17">
+      <c r="P59" s="17">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P59" s="23">
+      <c r="Q59" s="23">
         <v>2</v>
       </c>
-      <c r="Q59" s="19" t="s">
+      <c r="R59" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="60" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A60" s="95">
         <v>59</v>
       </c>
@@ -10023,41 +10283,44 @@
         <v>1.66</v>
       </c>
       <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
         <v>0.73</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>0.8</v>
       </c>
-      <c r="I60" s="42">
+      <c r="J60" s="42">
         <v>0.3</v>
       </c>
-      <c r="J60" s="18" t="s">
+      <c r="K60" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K60" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L60" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M60" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N60" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N60" s="22">
+      <c r="O60" s="22">
         <v>50</v>
       </c>
-      <c r="O60" s="17">
+      <c r="P60" s="17">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P60" s="23">
+      <c r="Q60" s="23">
         <v>4</v>
       </c>
-      <c r="Q60" s="19" t="s">
+      <c r="R60" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="61" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A61" s="95">
         <v>60</v>
       </c>
@@ -10077,42 +10340,45 @@
         <v>2.17</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>0.73</v>
       </c>
-      <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" s="42">
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="42">
         <v>0</v>
       </c>
-      <c r="J61" s="29" t="s">
+      <c r="K61" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K61" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="L61" s="29" t="s">
         <v>229</v>
       </c>
       <c r="M61" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N61" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="N61" s="24">
+      <c r="O61" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="O61" s="25">
+      <c r="P61" s="25">
         <f t="shared" si="2"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="P61" s="26">
+      <c r="Q61" s="26">
         <v>8</v>
       </c>
-      <c r="Q61" s="30" t="s">
+      <c r="R61" s="30" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="62" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A62" s="95">
         <v>61</v>
       </c>
@@ -10132,40 +10398,43 @@
         <v>0.15</v>
       </c>
       <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
         <v>0.75</v>
       </c>
-      <c r="H62" s="40">
+      <c r="I62" s="40">
         <v>0.2</v>
       </c>
-      <c r="I62" s="41">
+      <c r="J62" s="41">
         <v>0.95</v>
       </c>
-      <c r="J62" s="18" t="s">
+      <c r="K62" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L62" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N62" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N62" s="20">
+      <c r="O62" s="20">
         <v>5</v>
       </c>
-      <c r="O62" s="9">
+      <c r="P62" s="9">
         <v>0.30397841595588471</v>
       </c>
-      <c r="P62" s="21">
+      <c r="Q62" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q62" s="19" t="s">
+      <c r="R62" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="63" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A63" s="95">
         <v>62</v>
       </c>
@@ -10185,40 +10454,43 @@
         <v>0.36</v>
       </c>
       <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
         <v>0.65</v>
       </c>
-      <c r="H63" s="37">
+      <c r="I63" s="37">
         <v>0.45</v>
       </c>
-      <c r="I63" s="42">
+      <c r="J63" s="42">
         <v>0.75</v>
       </c>
-      <c r="J63" s="18" t="s">
+      <c r="K63" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K63" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L63" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M63" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N63" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N63" s="22">
+      <c r="O63" s="22">
         <v>17</v>
       </c>
-      <c r="O63" s="17">
+      <c r="P63" s="17">
         <v>0.60795683191176941</v>
       </c>
-      <c r="P63" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="19" t="s">
+      <c r="Q63" s="23">
+        <v>1</v>
+      </c>
+      <c r="R63" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="64" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A64" s="95">
         <v>63</v>
       </c>
@@ -10238,40 +10510,43 @@
         <v>0.72</v>
       </c>
       <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
         <v>0.65</v>
       </c>
-      <c r="H64" s="37">
+      <c r="I64" s="37">
         <v>0.75</v>
       </c>
-      <c r="I64" s="42">
+      <c r="J64" s="42">
         <v>0.3</v>
       </c>
-      <c r="J64" s="18" t="s">
+      <c r="K64" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K64" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L64" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M64" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N64" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N64" s="22">
+      <c r="O64" s="22">
         <v>37</v>
       </c>
-      <c r="O64" s="17">
+      <c r="P64" s="17">
         <v>1.2159136638235388</v>
       </c>
-      <c r="P64" s="23">
+      <c r="Q64" s="23">
         <v>2</v>
       </c>
-      <c r="Q64" s="19" t="s">
+      <c r="R64" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="65" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A65" s="95">
         <v>64</v>
       </c>
@@ -10291,41 +10566,44 @@
         <v>1.5</v>
       </c>
       <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>0.8</v>
       </c>
-      <c r="H65" s="38">
+      <c r="I65" s="38">
         <v>0.95</v>
       </c>
-      <c r="I65" s="43">
+      <c r="J65" s="43">
         <v>0</v>
       </c>
-      <c r="J65" s="29" t="s">
+      <c r="K65" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="L65" s="29" t="s">
         <v>229</v>
       </c>
       <c r="M65" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N65" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="N65" s="24">
+      <c r="O65" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O65" s="29">
+      <c r="P65" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="P65" s="26">
+      <c r="Q65" s="26">
         <v>4</v>
       </c>
-      <c r="Q65" s="30" t="s">
+      <c r="R65" s="30" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="66" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A66" s="95">
         <v>65</v>
       </c>
@@ -10345,40 +10623,43 @@
         <v>10</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="40">
         <v>0</v>
       </c>
-      <c r="I66" s="41">
-        <v>1</v>
-      </c>
-      <c r="J66" s="18" t="s">
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="40">
+        <v>0</v>
+      </c>
+      <c r="J66" s="41">
+        <v>1</v>
+      </c>
+      <c r="K66" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K66" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L66" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M66" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N66" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N66" s="20">
+      <c r="O66" s="20">
         <v>5</v>
       </c>
-      <c r="O66" s="9">
+      <c r="P66" s="9">
         <v>0.30397841595588471</v>
       </c>
-      <c r="P66" s="21">
+      <c r="Q66" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q66" s="19" t="s">
+      <c r="R66" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="67" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A67" s="95">
         <v>66</v>
       </c>
@@ -10398,40 +10679,43 @@
         <v>10</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
-      </c>
-      <c r="H67" s="37">
         <v>0</v>
       </c>
-      <c r="I67" s="42">
-        <v>1</v>
-      </c>
-      <c r="J67" s="18" t="s">
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="37">
+        <v>0</v>
+      </c>
+      <c r="J67" s="42">
+        <v>1</v>
+      </c>
+      <c r="K67" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K67" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L67" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M67" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N67" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N67" s="22">
+      <c r="O67" s="22">
         <v>17</v>
       </c>
-      <c r="O67" s="17">
+      <c r="P67" s="17">
         <v>0.60795683191176941</v>
       </c>
-      <c r="P67" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="19" t="s">
+      <c r="Q67" s="23">
+        <v>1</v>
+      </c>
+      <c r="R67" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="68" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A68" s="95">
         <v>67</v>
       </c>
@@ -10451,40 +10735,43 @@
         <v>10</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="37">
         <v>0</v>
       </c>
-      <c r="I68" s="42">
-        <v>1</v>
-      </c>
-      <c r="J68" s="18" t="s">
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="37">
+        <v>0</v>
+      </c>
+      <c r="J68" s="42">
+        <v>1</v>
+      </c>
+      <c r="K68" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="K68" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L68" s="18" t="s">
         <v>229</v>
       </c>
       <c r="M68" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="N68" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="N68" s="22">
+      <c r="O68" s="22">
         <v>37</v>
       </c>
-      <c r="O68" s="17">
+      <c r="P68" s="17">
         <v>1.2159136638235388</v>
       </c>
-      <c r="P68" s="23">
+      <c r="Q68" s="23">
         <v>2</v>
       </c>
-      <c r="Q68" s="19" t="s">
+      <c r="R68" s="19" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="15" customFormat="1" ht="14" customHeight="1">
+    <row r="69" spans="1:18" s="15" customFormat="1" ht="14" customHeight="1">
       <c r="A69" s="95">
         <v>68</v>
       </c>
@@ -10504,163 +10791,246 @@
         <v>10</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="38">
         <v>0</v>
       </c>
-      <c r="I69" s="43">
-        <v>1</v>
-      </c>
-      <c r="J69" s="29" t="s">
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="38">
+        <v>0</v>
+      </c>
+      <c r="J69" s="43">
+        <v>1</v>
+      </c>
+      <c r="K69" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>229</v>
       </c>
       <c r="L69" s="29" t="s">
         <v>229</v>
       </c>
       <c r="M69" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N69" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="N69" s="24">
+      <c r="O69" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O69" s="29">
+      <c r="P69" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="P69" s="26">
+      <c r="Q69" s="26">
         <v>4</v>
       </c>
-      <c r="Q69" s="30" t="s">
+      <c r="R69" s="30" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:Q68">
+  <sortState ref="B5:R68">
     <sortCondition ref="B133:B196"/>
     <sortCondition ref="C133:C196"/>
   </sortState>
-  <conditionalFormatting sqref="F10:H13">
-    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F10:F13 H10:I13">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:H9">
-    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F2:F9 H2:I9">
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:H17">
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F14:F17 H14:I17">
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G25">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F22:F25 H22:H25">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:H29">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F26:F29 H26:I29">
+    <cfRule type="containsText" dxfId="35" priority="36" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H45">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F42:F45 H42:I45">
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:G41">
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F38:F41 H38:H41">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:G21">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F18:F21 H18:H21">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:G57">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F54:F57 H54:H57">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:H53">
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F50:F53 H50:I53">
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:G61">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F58:F61 H58:H61">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H61">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H58)))</formula>
+  <conditionalFormatting sqref="I58:I61">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G49">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F46:F49 H46:H49">
+    <cfRule type="containsText" dxfId="27" priority="28" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H21">
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H18)))</formula>
+  <conditionalFormatting sqref="I18:I21">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H25">
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H22)))</formula>
+  <conditionalFormatting sqref="I22:I25">
+    <cfRule type="containsText" dxfId="25" priority="26" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H38)))</formula>
+  <conditionalFormatting sqref="I38:I41">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H49">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H46)))</formula>
+  <conditionalFormatting sqref="I46:I49">
+    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H57">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H54)))</formula>
+  <conditionalFormatting sqref="I54:I57">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:G65">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F62:F65 H62:H65">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H65">
-    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H62)))</formula>
+  <conditionalFormatting sqref="I62:I65">
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:G69">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F66:F69 H66:H69">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:H69">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H66)))</formula>
+  <conditionalFormatting sqref="I66:I69">
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:H33">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NA">
+  <conditionalFormatting sqref="F30:F33 H30:I33">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H37">
+  <conditionalFormatting sqref="F34:F37 H34:I37">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",F34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10:G13">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G9">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G17">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G25">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:G29">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:G45">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:G41">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18:G21">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54:G57">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G53">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G58:G61">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G49">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G62:G65">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G66:G69">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G66)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G33">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NA">
+      <formula>NOT(ISERROR(SEARCH("NA",G30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:G37">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",F34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",G34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
